--- a/Översikt BJURHOLM.xlsx
+++ b/Översikt BJURHOLM.xlsx
@@ -575,7 +575,7 @@
         <v>45831</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -713,7 +713,7 @@
         <v>44312</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -836,7 +836,7 @@
         <v>44336</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -961,7 +961,7 @@
         <v>45884.42804398148</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>45467</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1207,7 +1207,7 @@
         <v>45503</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1325,7 +1325,7 @@
         <v>45519</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1443,7 +1443,7 @@
         <v>45519</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1561,7 +1561,7 @@
         <v>45280</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1676,7 +1676,7 @@
         <v>44691</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1786,7 +1786,7 @@
         <v>45586</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1896,7 +1896,7 @@
         <v>45827</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -2009,7 +2009,7 @@
         <v>44896</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2122,7 +2122,7 @@
         <v>45742</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         <v>45607</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2326,7 +2326,7 @@
         <v>45057</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2426,7 +2426,7 @@
         <v>45456.62347222222</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2525,7 +2525,7 @@
         <v>44648</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2627,7 +2627,7 @@
         <v>45447</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2730,7 +2730,7 @@
         <v>44277</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2826,7 +2826,7 @@
         <v>44694</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2925,7 +2925,7 @@
         <v>45761.4652199074</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -3015,7 +3015,7 @@
         <v>45884.47008101852</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3114,7 +3114,7 @@
         <v>45009</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3208,7 +3208,7 @@
         <v>45043</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3297,7 +3297,7 @@
         <v>44881</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3386,7 +3386,7 @@
         <v>46057.38619212963</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         <v>44588</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3567,7 +3567,7 @@
         <v>45973.63479166666</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3655,7 +3655,7 @@
         <v>46000.4275462963</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3752,7 +3752,7 @@
         <v>45635</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3844,7 +3844,7 @@
         <v>45981.56534722223</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3935,7 +3935,7 @@
         <v>45246</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4027,7 +4027,7 @@
         <v>46001.68449074074</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>46010.46971064815</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4209,7 +4209,7 @@
         <v>45471.94290509259</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4300,7 +4300,7 @@
         <v>45645</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4386,7 +4386,7 @@
         <v>45113</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4481,7 +4481,7 @@
         <v>44277</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4571,7 +4571,7 @@
         <v>45659</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4656,7 +4656,7 @@
         <v>44897.43052083333</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4746,7 +4746,7 @@
         <v>45404</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4831,7 +4831,7 @@
         <v>45915.55253472222</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4921,7 +4921,7 @@
         <v>45929.5741087963</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -5006,7 +5006,7 @@
         <v>45252</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5096,7 +5096,7 @@
         <v>45656</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5181,7 +5181,7 @@
         <v>45975.34778935185</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5271,7 +5271,7 @@
         <v>45981.30391203704</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5361,7 +5361,7 @@
         <v>45747.68127314815</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5450,7 +5450,7 @@
         <v>46001.68668981481</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5540,7 +5540,7 @@
         <v>46013.56092592593</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5630,7 +5630,7 @@
         <v>44665</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5720,7 +5720,7 @@
         <v>45440</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5810,7 +5810,7 @@
         <v>44484</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5900,7 +5900,7 @@
         <v>45513</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5989,7 +5989,7 @@
         <v>44279</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6046,7 +6046,7 @@
         <v>44679</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6103,7 +6103,7 @@
         <v>44524</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6160,7 +6160,7 @@
         <v>44300.93118055556</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6222,7 +6222,7 @@
         <v>44746</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6279,7 +6279,7 @@
         <v>44774</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6336,7 +6336,7 @@
         <v>44831.43211805556</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6393,7 +6393,7 @@
         <v>44818</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6450,7 +6450,7 @@
         <v>44370</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6507,7 +6507,7 @@
         <v>44375</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6564,7 +6564,7 @@
         <v>44844</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6621,7 +6621,7 @@
         <v>45260.96586805556</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6683,7 +6683,7 @@
         <v>44865</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6740,7 +6740,7 @@
         <v>44844.92738425926</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6797,7 +6797,7 @@
         <v>44397</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6854,7 +6854,7 @@
         <v>44831.42108796296</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6911,7 +6911,7 @@
         <v>44235</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6968,7 +6968,7 @@
         <v>44864.69234953704</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7025,7 +7025,7 @@
         <v>44461</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7082,7 +7082,7 @@
         <v>44461</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7139,7 +7139,7 @@
         <v>44462</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7196,7 +7196,7 @@
         <v>44504.48643518519</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7258,7 +7258,7 @@
         <v>44484.98724537037</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7320,7 +7320,7 @@
         <v>44608.67099537037</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7377,7 +7377,7 @@
         <v>44551</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7434,7 +7434,7 @@
         <v>44701.45046296297</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7496,7 +7496,7 @@
         <v>44397.55902777778</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7553,7 +7553,7 @@
         <v>44620</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7610,7 +7610,7 @@
         <v>44770</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7672,7 +7672,7 @@
         <v>44608</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7729,7 +7729,7 @@
         <v>44580</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7791,7 +7791,7 @@
         <v>44834.58712962963</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7853,7 +7853,7 @@
         <v>44490.66326388889</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7915,7 +7915,7 @@
         <v>44680</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7972,7 +7972,7 @@
         <v>44802.65265046297</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8034,7 +8034,7 @@
         <v>44608.6668287037</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8091,7 +8091,7 @@
         <v>44740.47321759259</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8153,7 +8153,7 @@
         <v>44743.94396990741</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8215,7 +8215,7 @@
         <v>44602</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8277,7 +8277,7 @@
         <v>44826</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8334,7 +8334,7 @@
         <v>44599</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8391,7 +8391,7 @@
         <v>44862.44689814815</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8448,7 +8448,7 @@
         <v>44620</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8505,7 +8505,7 @@
         <v>44620</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8562,7 +8562,7 @@
         <v>44524</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8619,7 +8619,7 @@
         <v>44524</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8676,7 +8676,7 @@
         <v>44774</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8733,7 +8733,7 @@
         <v>44490</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8790,7 +8790,7 @@
         <v>44484.98746527778</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8852,7 +8852,7 @@
         <v>45469</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8909,7 +8909,7 @@
         <v>45601.41592592592</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8971,7 +8971,7 @@
         <v>45611</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9028,7 +9028,7 @@
         <v>45649</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9085,7 +9085,7 @@
         <v>45471.9431712963</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9147,7 +9147,7 @@
         <v>45537</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9204,7 +9204,7 @@
         <v>44914.97001157407</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9266,7 +9266,7 @@
         <v>45736</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9323,7 +9323,7 @@
         <v>44918</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9385,7 +9385,7 @@
         <v>45195</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9442,7 +9442,7 @@
         <v>45117.95247685185</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9504,7 +9504,7 @@
         <v>45451</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9566,7 +9566,7 @@
         <v>45536</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9623,7 +9623,7 @@
         <v>45602.3874537037</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9680,7 +9680,7 @@
         <v>44827</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9737,7 +9737,7 @@
         <v>45630</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9799,7 +9799,7 @@
         <v>45247.47538194444</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9856,7 +9856,7 @@
         <v>45345</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9913,7 +9913,7 @@
         <v>45587.59827546297</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9970,7 +9970,7 @@
         <v>45481</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10032,7 +10032,7 @@
         <v>45615</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10089,7 +10089,7 @@
         <v>45189</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10146,7 +10146,7 @@
         <v>45531.69734953704</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10203,7 +10203,7 @@
         <v>45188.61318287037</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10265,7 +10265,7 @@
         <v>45145.92299768519</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10322,7 +10322,7 @@
         <v>45145.92325231482</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10379,7 +10379,7 @@
         <v>45257</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10436,7 +10436,7 @@
         <v>45744.57880787037</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10493,7 +10493,7 @@
         <v>45800.65744212963</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10550,7 +10550,7 @@
         <v>45446.6784837963</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10607,7 +10607,7 @@
         <v>45399</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10664,7 +10664,7 @@
         <v>45887.49842592593</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10721,7 +10721,7 @@
         <v>45251.33342592593</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10778,7 +10778,7 @@
         <v>45418</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10840,7 +10840,7 @@
         <v>45800.34435185185</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10902,7 +10902,7 @@
         <v>45511</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10959,7 +10959,7 @@
         <v>45128.62215277777</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11021,7 +11021,7 @@
         <v>45693.55229166667</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11078,7 +11078,7 @@
         <v>44919</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11135,7 +11135,7 @@
         <v>45649.57627314814</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11192,7 +11192,7 @@
         <v>45568</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11249,7 +11249,7 @@
         <v>45835.50796296296</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11306,7 +11306,7 @@
         <v>45889.37619212963</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11363,7 +11363,7 @@
         <v>45888.59417824074</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11425,7 +11425,7 @@
         <v>45889.36288194444</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11482,7 +11482,7 @@
         <v>45889.37246527777</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11539,7 +11539,7 @@
         <v>45645.66908564815</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11596,7 +11596,7 @@
         <v>45810.8708912037</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11653,7 +11653,7 @@
         <v>45889.36472222222</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11710,7 +11710,7 @@
         <v>45889.36733796296</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11767,7 +11767,7 @@
         <v>45889.65439814814</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11829,7 +11829,7 @@
         <v>45891.63541666666</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11891,7 +11891,7 @@
         <v>45813.53979166667</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11948,7 +11948,7 @@
         <v>45890.37449074074</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12010,7 +12010,7 @@
         <v>44475.63670138889</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12072,7 +12072,7 @@
         <v>45813.54122685185</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12129,7 +12129,7 @@
         <v>44795</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12186,7 +12186,7 @@
         <v>45813.52341435185</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12243,7 +12243,7 @@
         <v>45812.47314814815</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12300,7 +12300,7 @@
         <v>45894.65684027778</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12357,7 +12357,7 @@
         <v>45894.66121527777</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12419,7 +12419,7 @@
         <v>45895.34538194445</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12476,7 +12476,7 @@
         <v>45817.61836805556</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12538,7 +12538,7 @@
         <v>45817.63113425926</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12600,7 +12600,7 @@
         <v>45895.34515046296</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12657,7 +12657,7 @@
         <v>45895.40678240741</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12719,7 +12719,7 @@
         <v>45897</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12781,7 +12781,7 @@
         <v>45897.34454861111</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12843,7 +12843,7 @@
         <v>45897</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12905,7 +12905,7 @@
         <v>45897</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12967,7 +12967,7 @@
         <v>45897</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13029,7 +13029,7 @@
         <v>45897</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13091,7 +13091,7 @@
         <v>45187</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13153,7 +13153,7 @@
         <v>44536</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13210,7 +13210,7 @@
         <v>45898.60793981481</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13272,7 +13272,7 @@
         <v>45846.45019675926</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13329,7 +13329,7 @@
         <v>45345.34260416667</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13386,7 +13386,7 @@
         <v>44949</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13443,7 +13443,7 @@
         <v>45824.45652777778</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13500,7 +13500,7 @@
         <v>45251</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13557,7 +13557,7 @@
         <v>45756.4102199074</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13614,7 +13614,7 @@
         <v>45908.49655092593</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13671,7 +13671,7 @@
         <v>45750.46479166667</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13733,7 +13733,7 @@
         <v>45479</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13795,7 +13795,7 @@
         <v>45253.8090162037</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13852,7 +13852,7 @@
         <v>45825.56524305556</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13909,7 +13909,7 @@
         <v>44414.52152777778</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13966,7 +13966,7 @@
         <v>45659.39510416667</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14023,7 +14023,7 @@
         <v>45915.574375</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14085,7 +14085,7 @@
         <v>45915.58934027778</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14147,7 +14147,7 @@
         <v>45587.8405324074</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14224,7 +14224,7 @@
         <v>45587.84275462963</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14281,7 +14281,7 @@
         <v>45587.848125</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14338,7 +14338,7 @@
         <v>45912.39425925926</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14400,7 +14400,7 @@
         <v>45057.9408912037</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14462,7 +14462,7 @@
         <v>45602.44862268519</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14519,7 +14519,7 @@
         <v>44950.95469907407</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14576,7 +14576,7 @@
         <v>45916.65663194445</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14638,7 +14638,7 @@
         <v>45730.39814814815</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14695,7 +14695,7 @@
         <v>45831.51869212963</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14757,7 +14757,7 @@
         <v>45831.52111111111</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14819,7 +14819,7 @@
         <v>45919.49429398148</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14876,7 +14876,7 @@
         <v>45609.61846064815</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14933,7 +14933,7 @@
         <v>45602.38761574074</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14990,7 +14990,7 @@
         <v>45602.38763888889</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15047,7 +15047,7 @@
         <v>45919.48994212963</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15109,7 +15109,7 @@
         <v>44776</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15171,7 +15171,7 @@
         <v>45920.82388888889</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15228,7 +15228,7 @@
         <v>45832.61597222222</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15285,7 +15285,7 @@
         <v>45198.40074074074</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15347,7 +15347,7 @@
         <v>45924.67805555555</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15409,7 +15409,7 @@
         <v>45631.34457175926</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15471,7 +15471,7 @@
         <v>45646</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15528,7 +15528,7 @@
         <v>45929.34304398148</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15590,7 +15590,7 @@
         <v>45929.36494212963</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15647,7 +15647,7 @@
         <v>45630.66277777778</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15709,7 +15709,7 @@
         <v>45362</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15766,7 +15766,7 @@
         <v>45679.39748842592</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15823,7 +15823,7 @@
         <v>45834.33939814815</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15885,7 +15885,7 @@
         <v>45929.47361111111</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15947,7 +15947,7 @@
         <v>45929.72506944444</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16004,7 +16004,7 @@
         <v>45929.36496527777</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16061,7 +16061,7 @@
         <v>45645.58835648148</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16118,7 +16118,7 @@
         <v>45723.36034722222</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16175,7 +16175,7 @@
         <v>45929.71940972222</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16232,7 +16232,7 @@
         <v>45926.59788194444</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16294,7 +16294,7 @@
         <v>45436</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16356,7 +16356,7 @@
         <v>45436.94708333333</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16418,7 +16418,7 @@
         <v>45931.37207175926</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16475,7 +16475,7 @@
         <v>44370.65484953704</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16532,7 +16532,7 @@
         <v>45600.47861111111</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16594,7 +16594,7 @@
         <v>45835.8281712963</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16656,7 +16656,7 @@
         <v>45838.59995370371</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16713,7 +16713,7 @@
         <v>45835.87006944444</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16775,7 +16775,7 @@
         <v>45467</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16837,7 +16837,7 @@
         <v>45537</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16894,7 +16894,7 @@
         <v>45938.48</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16956,7 +16956,7 @@
         <v>45582.47464120371</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17013,7 +17013,7 @@
         <v>45582</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17070,7 +17070,7 @@
         <v>45938.63704861111</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17127,7 +17127,7 @@
         <v>45104.65298611111</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17189,7 +17189,7 @@
         <v>45678.61952546296</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17251,7 +17251,7 @@
         <v>45943.38288194445</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17308,7 +17308,7 @@
         <v>45845</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17365,7 +17365,7 @@
         <v>45190.50340277778</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17422,7 +17422,7 @@
         <v>45943.40912037037</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17479,7 +17479,7 @@
         <v>45943.40491898148</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17536,7 +17536,7 @@
         <v>45069.37450231481</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17598,7 +17598,7 @@
         <v>45846.4693287037</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17655,7 +17655,7 @@
         <v>45945.40693287037</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17712,7 +17712,7 @@
         <v>45846.45319444445</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17769,7 +17769,7 @@
         <v>45351</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17826,7 +17826,7 @@
         <v>45946.51113425926</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17883,7 +17883,7 @@
         <v>45946.61516203704</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17940,7 +17940,7 @@
         <v>45393</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17997,7 +17997,7 @@
         <v>45394</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18054,7 +18054,7 @@
         <v>45394</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18111,7 +18111,7 @@
         <v>45946.490625</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18168,7 +18168,7 @@
         <v>45946.51122685185</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18225,7 +18225,7 @@
         <v>45345</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18282,7 +18282,7 @@
         <v>45953.4543287037</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18339,7 +18339,7 @@
         <v>45867.61530092593</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18401,7 +18401,7 @@
         <v>45866.55498842592</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18458,7 +18458,7 @@
         <v>45953.41458333333</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18515,7 +18515,7 @@
         <v>45800</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18577,7 +18577,7 @@
         <v>45727.61769675926</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18634,7 +18634,7 @@
         <v>45873.71912037037</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18696,7 +18696,7 @@
         <v>45953.79050925926</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18753,7 +18753,7 @@
         <v>45565.58391203704</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18810,7 +18810,7 @@
         <v>45407.51649305555</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18872,7 +18872,7 @@
         <v>44919</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18929,7 +18929,7 @@
         <v>45614.34428240741</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18991,7 +18991,7 @@
         <v>45198.47061342592</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19053,7 +19053,7 @@
         <v>44701</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19110,7 +19110,7 @@
         <v>45874.69827546296</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19172,7 +19172,7 @@
         <v>45875.67760416667</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19234,7 +19234,7 @@
         <v>45758.63064814815</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19291,7 +19291,7 @@
         <v>44991</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19348,7 +19348,7 @@
         <v>45512</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19405,7 +19405,7 @@
         <v>45874.67782407408</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19467,7 +19467,7 @@
         <v>45874.48631944445</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19524,7 +19524,7 @@
         <v>45875.34476851852</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19586,7 +19586,7 @@
         <v>45102</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19648,7 +19648,7 @@
         <v>45880</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19705,7 +19705,7 @@
         <v>45881.40806712963</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19762,7 +19762,7 @@
         <v>45880</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19819,7 +19819,7 @@
         <v>45880</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19876,7 +19876,7 @@
         <v>45467.35814814815</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19938,7 +19938,7 @@
         <v>45881.41208333334</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19995,7 +19995,7 @@
         <v>45880.67780092593</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20057,7 +20057,7 @@
         <v>45348</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20114,7 +20114,7 @@
         <v>45881.51483796296</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20171,7 +20171,7 @@
         <v>45964.4562037037</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20228,7 +20228,7 @@
         <v>45181.38291666667</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20290,7 +20290,7 @@
         <v>45019</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20347,7 +20347,7 @@
         <v>45880</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20404,7 +20404,7 @@
         <v>45880</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20461,7 +20461,7 @@
         <v>45882.28542824074</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20518,7 +20518,7 @@
         <v>45882.63927083334</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20575,7 +20575,7 @@
         <v>45882.55125</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20632,7 +20632,7 @@
         <v>45099</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20689,7 +20689,7 @@
         <v>44998</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20746,7 +20746,7 @@
         <v>45883.65666666667</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20808,7 +20808,7 @@
         <v>45680.56597222222</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20865,7 +20865,7 @@
         <v>45883.63590277778</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20927,7 +20927,7 @@
         <v>44722</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20984,7 +20984,7 @@
         <v>45973.38936342593</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21046,7 +21046,7 @@
         <v>45882.58627314815</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21103,7 +21103,7 @@
         <v>45450.94471064815</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21165,7 +21165,7 @@
         <v>45451</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21227,7 +21227,7 @@
         <v>44784.94172453704</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21289,7 +21289,7 @@
         <v>45975.37643518519</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21346,7 +21346,7 @@
         <v>45721.445625</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21403,7 +21403,7 @@
         <v>45979.60740740741</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21465,7 +21465,7 @@
         <v>45979.65953703703</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21527,7 +21527,7 @@
         <v>45537</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21584,7 +21584,7 @@
         <v>45609.64046296296</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21641,7 +21641,7 @@
         <v>45978.30922453704</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21698,7 +21698,7 @@
         <v>45978.45061342593</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21755,7 +21755,7 @@
         <v>44785</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21817,7 +21817,7 @@
         <v>45980.3821875</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21874,7 +21874,7 @@
         <v>45981</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21931,7 +21931,7 @@
         <v>46023.84774305556</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21988,7 +21988,7 @@
         <v>44901.92403935185</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22045,7 +22045,7 @@
         <v>45175.63826388889</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22107,7 +22107,7 @@
         <v>45727.60585648148</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22164,7 +22164,7 @@
         <v>45982.44800925926</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22221,7 +22221,7 @@
         <v>45627.71203703704</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22278,7 +22278,7 @@
         <v>45737.55802083333</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22335,7 +22335,7 @@
         <v>45982.64979166666</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22392,7 +22392,7 @@
         <v>45986.62428240741</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22449,7 +22449,7 @@
         <v>45986.61917824074</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22506,7 +22506,7 @@
         <v>45232</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22563,7 +22563,7 @@
         <v>45986.37128472222</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22620,7 +22620,7 @@
         <v>45989.45841435185</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22682,7 +22682,7 @@
         <v>44756</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22739,7 +22739,7 @@
         <v>45988.70458333333</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22796,7 +22796,7 @@
         <v>46030.58759259259</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22853,7 +22853,7 @@
         <v>45989.3446412037</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22915,7 +22915,7 @@
         <v>45568.44950231481</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22972,7 +22972,7 @@
         <v>45548.56578703703</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23029,7 +23029,7 @@
         <v>45988.42684027777</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23091,7 +23091,7 @@
         <v>46028</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23148,7 +23148,7 @@
         <v>45537</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23205,7 +23205,7 @@
         <v>45988</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23262,7 +23262,7 @@
         <v>45183</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23319,7 +23319,7 @@
         <v>45993.65642361111</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23376,7 +23376,7 @@
         <v>44911.94085648148</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23438,7 +23438,7 @@
         <v>44966.67196759259</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23500,7 +23500,7 @@
         <v>45307.92592592593</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23557,7 +23557,7 @@
         <v>46034</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23614,7 +23614,7 @@
         <v>45659</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23671,7 +23671,7 @@
         <v>44899.94689814815</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23733,7 +23733,7 @@
         <v>45622.42745370371</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23795,7 +23795,7 @@
         <v>45705</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23852,7 +23852,7 @@
         <v>45755.60756944444</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23909,7 +23909,7 @@
         <v>45056</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23966,7 +23966,7 @@
         <v>45623</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24023,7 +24023,7 @@
         <v>45259</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24080,7 +24080,7 @@
         <v>45555</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24142,7 +24142,7 @@
         <v>45028.94060185185</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24204,7 +24204,7 @@
         <v>46000</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24261,7 +24261,7 @@
         <v>45616</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24318,7 +24318,7 @@
         <v>46001.43599537037</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24375,7 +24375,7 @@
         <v>46001.4212962963</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24432,7 +24432,7 @@
         <v>46001.45038194444</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24489,7 +24489,7 @@
         <v>45398</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24551,7 +24551,7 @@
         <v>46000.54172453703</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24608,7 +24608,7 @@
         <v>46001.68611111111</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24670,7 +24670,7 @@
         <v>45246.96910879629</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24732,7 +24732,7 @@
         <v>45224.75395833333</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24789,7 +24789,7 @@
         <v>46044.42516203703</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24846,7 +24846,7 @@
         <v>45280.94380787037</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24908,7 +24908,7 @@
         <v>45450</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24970,7 +24970,7 @@
         <v>45610.38056712963</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25032,7 +25032,7 @@
         <v>46002.60291666666</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25089,7 +25089,7 @@
         <v>45141</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25151,7 +25151,7 @@
         <v>45190.45606481482</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25213,7 +25213,7 @@
         <v>46006.51091435185</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25275,7 +25275,7 @@
         <v>45615.7033912037</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25332,7 +25332,7 @@
         <v>45568</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25389,7 +25389,7 @@
         <v>46007.50287037037</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25446,7 +25446,7 @@
         <v>45190.60920138889</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25508,7 +25508,7 @@
         <v>46007.88758101852</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25565,7 +25565,7 @@
         <v>46008.49011574074</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25622,7 +25622,7 @@
         <v>46008.49018518518</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25679,7 +25679,7 @@
         <v>45183</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25741,7 +25741,7 @@
         <v>45958</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25798,7 +25798,7 @@
         <v>45737.54446759259</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25855,7 +25855,7 @@
         <v>46008.51109953703</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25912,7 +25912,7 @@
         <v>45469</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25974,7 +25974,7 @@
         <v>45537</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26031,7 +26031,7 @@
         <v>46010.45041666667</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26088,7 +26088,7 @@
         <v>46055.38575231482</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26145,7 +26145,7 @@
         <v>46010</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26202,7 +26202,7 @@
         <v>45280.94303240741</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26264,7 +26264,7 @@
         <v>46010.39408564815</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26321,7 +26321,7 @@
         <v>46010</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26378,7 +26378,7 @@
         <v>46010.39568287037</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26435,7 +26435,7 @@
         <v>45259</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26492,7 +26492,7 @@
         <v>46013.61215277778</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26554,7 +26554,7 @@
         <v>44792.35222222222</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26611,7 +26611,7 @@
         <v>46055</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26668,7 +26668,7 @@
         <v>46057.58739583333</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26725,7 +26725,7 @@
         <v>46057.2996412037</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26782,7 +26782,7 @@
         <v>46057.29667824074</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26839,7 +26839,7 @@
         <v>45476</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26901,7 +26901,7 @@
         <v>46014.46296296296</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26958,7 +26958,7 @@
         <v>45260.34408564815</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -27015,7 +27015,7 @@
         <v>46041</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -27077,7 +27077,7 @@
         <v>46057.58056712963</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27134,7 +27134,7 @@
         <v>46056.41567129629</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27191,7 +27191,7 @@
         <v>46056.42645833334</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27248,7 +27248,7 @@
         <v>45169.93868055556</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27310,7 +27310,7 @@
         <v>44673</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27367,7 +27367,7 @@
         <v>45623</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27424,7 +27424,7 @@
         <v>46056.48768518519</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27481,7 +27481,7 @@
         <v>45602.38762731481</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27538,7 +27538,7 @@
         <v>45113</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27600,7 +27600,7 @@
         <v>45630</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27662,7 +27662,7 @@
         <v>45132</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27724,7 +27724,7 @@
         <v>45614</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27781,7 +27781,7 @@
         <v>45429</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27838,7 +27838,7 @@
         <v>45756.47723379629</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27895,7 +27895,7 @@
         <v>45351</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27952,7 +27952,7 @@
         <v>45726.61538194444</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -28014,7 +28014,7 @@
         <v>45394</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -28071,7 +28071,7 @@
         <v>44424</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28133,7 +28133,7 @@
         <v>45513</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28190,7 +28190,7 @@
         <v>45506</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28252,7 +28252,7 @@
         <v>45247.46681712963</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28309,7 +28309,7 @@
         <v>45293</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28366,7 +28366,7 @@
         <v>45236</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28423,7 +28423,7 @@
         <v>44806</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28480,7 +28480,7 @@
         <v>45447</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28542,7 +28542,7 @@
         <v>45141.32886574074</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28604,7 +28604,7 @@
         <v>45141.47096064815</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28666,7 +28666,7 @@
         <v>45614</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28723,7 +28723,7 @@
         <v>44788.6674537037</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28780,7 +28780,7 @@
         <v>45348</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28837,7 +28837,7 @@
         <v>45348</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28894,7 +28894,7 @@
         <v>45009.08837962963</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28956,7 +28956,7 @@
         <v>44887</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -29018,7 +29018,7 @@
         <v>45307</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -29075,7 +29075,7 @@
         <v>45587.83815972223</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29132,7 +29132,7 @@
         <v>44985</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29189,7 +29189,7 @@
         <v>45450.94480324074</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29251,7 +29251,7 @@
         <v>45342</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29308,7 +29308,7 @@
         <v>45351</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29365,7 +29365,7 @@
         <v>45433.94342592593</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29427,7 +29427,7 @@
         <v>45649</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29484,7 +29484,7 @@
         <v>45649.3635300926</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29541,7 +29541,7 @@
         <v>45602.4377662037</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29598,7 +29598,7 @@
         <v>44494</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29655,7 +29655,7 @@
         <v>44608</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29712,7 +29712,7 @@
         <v>44608.66927083334</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29769,7 +29769,7 @@
         <v>45148.47032407407</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29831,7 +29831,7 @@
         <v>45148</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29893,7 +29893,7 @@
         <v>45547</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29955,7 +29955,7 @@
         <v>45190</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -30017,7 +30017,7 @@
         <v>45602</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -30079,7 +30079,7 @@
         <v>45406</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -30136,7 +30136,7 @@
         <v>44977</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30198,7 +30198,7 @@
         <v>44424.94164351852</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30260,7 +30260,7 @@
         <v>45090.70563657407</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30317,7 +30317,7 @@
         <v>45693.45158564814</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30374,7 +30374,7 @@
         <v>45642.70561342593</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30436,7 +30436,7 @@
         <v>45189.44546296296</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30498,7 +30498,7 @@
         <v>44978.92381944445</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30555,7 +30555,7 @@
         <v>44911</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30617,7 +30617,7 @@
         <v>45224.88442129629</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30674,7 +30674,7 @@
         <v>45512</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30731,7 +30731,7 @@
         <v>45539</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30788,7 +30788,7 @@
         <v>45659.44478009259</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30845,7 +30845,7 @@
         <v>44924</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30907,7 +30907,7 @@
         <v>45609.64043981482</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30964,7 +30964,7 @@
         <v>44557</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -31021,7 +31021,7 @@
         <v>45357</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -31078,7 +31078,7 @@
         <v>44916.9260300926</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31135,7 +31135,7 @@
         <v>45429.92396990741</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31192,7 +31192,7 @@
         <v>45590.48991898148</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31249,7 +31249,7 @@
         <v>45565.34449074074</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31306,7 +31306,7 @@
         <v>45749.60484953703</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31363,7 +31363,7 @@
         <v>45076</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31420,7 +31420,7 @@
         <v>45072.47021990741</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31477,7 +31477,7 @@
         <v>45139</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31534,7 +31534,7 @@
         <v>44866</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31591,7 +31591,7 @@
         <v>45609.67881944445</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31648,7 +31648,7 @@
         <v>45436.94701388889</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31710,7 +31710,7 @@
         <v>45168</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31767,7 +31767,7 @@
         <v>44441</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31824,7 +31824,7 @@
         <v>45600.55559027778</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31886,7 +31886,7 @@
         <v>45712.39594907407</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31948,7 +31948,7 @@
         <v>45645.60092592592</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -32005,7 +32005,7 @@
         <v>45749.44096064815</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -32062,7 +32062,7 @@
         <v>45638.63533564815</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -32119,7 +32119,7 @@
         <v>45784.42898148148</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32176,7 +32176,7 @@
         <v>45785.46921296296</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32233,7 +32233,7 @@
         <v>45785.46922453704</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32290,7 +32290,7 @@
         <v>45785.84664351852</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32352,7 +32352,7 @@
         <v>45786.34450231482</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32414,7 +32414,7 @@
         <v>45785.84648148148</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32476,7 +32476,7 @@
         <v>45790</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32533,7 +32533,7 @@
         <v>45484.71327546296</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32590,7 +32590,7 @@
         <v>45567</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>

--- a/Översikt BJURHOLM.xlsx
+++ b/Översikt BJURHOLM.xlsx
@@ -575,7 +575,7 @@
         <v>45831</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -713,7 +713,7 @@
         <v>44312</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -836,7 +836,7 @@
         <v>44336</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -961,7 +961,7 @@
         <v>45884.42804398148</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>45467</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1207,7 +1207,7 @@
         <v>45503</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1325,7 +1325,7 @@
         <v>45519</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1443,7 +1443,7 @@
         <v>45519</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1561,7 +1561,7 @@
         <v>45280</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1676,7 +1676,7 @@
         <v>44691</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1786,7 +1786,7 @@
         <v>45586</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1896,7 +1896,7 @@
         <v>45827</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -2009,7 +2009,7 @@
         <v>44896</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2122,7 +2122,7 @@
         <v>45742</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         <v>45607</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2326,7 +2326,7 @@
         <v>45057</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2426,7 +2426,7 @@
         <v>45456.62347222222</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2525,7 +2525,7 @@
         <v>44648</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2627,7 +2627,7 @@
         <v>45447</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2730,7 +2730,7 @@
         <v>44277</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2826,7 +2826,7 @@
         <v>44694</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2925,7 +2925,7 @@
         <v>45761.4652199074</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -3015,7 +3015,7 @@
         <v>45884.47008101852</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3114,7 +3114,7 @@
         <v>45009</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3208,7 +3208,7 @@
         <v>45043</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3297,7 +3297,7 @@
         <v>44881</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3386,7 +3386,7 @@
         <v>46057.38619212963</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         <v>44588</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3567,7 +3567,7 @@
         <v>45973.63479166666</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3655,7 +3655,7 @@
         <v>46000.4275462963</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3752,7 +3752,7 @@
         <v>45635</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3844,7 +3844,7 @@
         <v>45981.56534722223</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3935,7 +3935,7 @@
         <v>45246</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4027,7 +4027,7 @@
         <v>46001.68449074074</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>46010.46971064815</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4209,7 +4209,7 @@
         <v>45471.94290509259</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4300,7 +4300,7 @@
         <v>45645</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4386,7 +4386,7 @@
         <v>45113</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4481,7 +4481,7 @@
         <v>44277</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4571,7 +4571,7 @@
         <v>45659</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4656,7 +4656,7 @@
         <v>44897.43052083333</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4746,7 +4746,7 @@
         <v>45404</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4831,7 +4831,7 @@
         <v>45915.55253472222</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4921,7 +4921,7 @@
         <v>45929.5741087963</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -5006,7 +5006,7 @@
         <v>45252</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5096,7 +5096,7 @@
         <v>45656</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5181,7 +5181,7 @@
         <v>45975.34778935185</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5271,7 +5271,7 @@
         <v>45981.30391203704</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5361,7 +5361,7 @@
         <v>45747.68127314815</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5450,7 +5450,7 @@
         <v>46001.68668981481</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5540,7 +5540,7 @@
         <v>46013.56092592593</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5630,7 +5630,7 @@
         <v>44665</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5720,7 +5720,7 @@
         <v>45440</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5810,7 +5810,7 @@
         <v>44484</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5900,7 +5900,7 @@
         <v>45513</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5989,7 +5989,7 @@
         <v>44279</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6046,7 +6046,7 @@
         <v>44679</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6103,7 +6103,7 @@
         <v>44524</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6160,7 +6160,7 @@
         <v>44300.93118055556</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6222,7 +6222,7 @@
         <v>44746</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6279,7 +6279,7 @@
         <v>44774</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6336,7 +6336,7 @@
         <v>44831.43211805556</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6393,7 +6393,7 @@
         <v>44818</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6450,7 +6450,7 @@
         <v>44370</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6507,7 +6507,7 @@
         <v>44375</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6564,7 +6564,7 @@
         <v>44844</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6621,7 +6621,7 @@
         <v>45260.96586805556</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6683,7 +6683,7 @@
         <v>44865</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6740,7 +6740,7 @@
         <v>44844.92738425926</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6797,7 +6797,7 @@
         <v>44397</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6854,7 +6854,7 @@
         <v>44831.42108796296</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6911,7 +6911,7 @@
         <v>44235</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6968,7 +6968,7 @@
         <v>44864.69234953704</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7025,7 +7025,7 @@
         <v>44461</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7082,7 +7082,7 @@
         <v>44461</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7139,7 +7139,7 @@
         <v>44462</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7196,7 +7196,7 @@
         <v>44504.48643518519</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7258,7 +7258,7 @@
         <v>44484.98724537037</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7320,7 +7320,7 @@
         <v>44608.67099537037</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7377,7 +7377,7 @@
         <v>44551</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7434,7 +7434,7 @@
         <v>44701.45046296297</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7496,7 +7496,7 @@
         <v>44397.55902777778</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7553,7 +7553,7 @@
         <v>44620</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7610,7 +7610,7 @@
         <v>44770</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7672,7 +7672,7 @@
         <v>44608</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7729,7 +7729,7 @@
         <v>44580</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7791,7 +7791,7 @@
         <v>44834.58712962963</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7853,7 +7853,7 @@
         <v>44490.66326388889</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7915,7 +7915,7 @@
         <v>44680</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7972,7 +7972,7 @@
         <v>44802.65265046297</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8034,7 +8034,7 @@
         <v>44608.6668287037</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8091,7 +8091,7 @@
         <v>44740.47321759259</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8153,7 +8153,7 @@
         <v>44743.94396990741</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8215,7 +8215,7 @@
         <v>44602</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8277,7 +8277,7 @@
         <v>44826</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8334,7 +8334,7 @@
         <v>44599</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8391,7 +8391,7 @@
         <v>44862.44689814815</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8448,7 +8448,7 @@
         <v>44620</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8505,7 +8505,7 @@
         <v>44620</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8562,7 +8562,7 @@
         <v>44524</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8619,7 +8619,7 @@
         <v>44524</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8676,7 +8676,7 @@
         <v>44774</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8733,7 +8733,7 @@
         <v>44490</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8790,7 +8790,7 @@
         <v>44484.98746527778</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8852,7 +8852,7 @@
         <v>45469</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8909,7 +8909,7 @@
         <v>45601.41592592592</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8971,7 +8971,7 @@
         <v>45611</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9028,7 +9028,7 @@
         <v>45649</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9085,7 +9085,7 @@
         <v>45471.9431712963</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9147,7 +9147,7 @@
         <v>45537</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9204,7 +9204,7 @@
         <v>44914.97001157407</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9266,7 +9266,7 @@
         <v>45736</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9323,7 +9323,7 @@
         <v>44918</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9385,7 +9385,7 @@
         <v>45195</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9442,7 +9442,7 @@
         <v>45117.95247685185</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9504,7 +9504,7 @@
         <v>45451</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9566,7 +9566,7 @@
         <v>45536</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9623,7 +9623,7 @@
         <v>45602.3874537037</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9680,7 +9680,7 @@
         <v>44827</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9737,7 +9737,7 @@
         <v>45630</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9799,7 +9799,7 @@
         <v>45247.47538194444</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9856,7 +9856,7 @@
         <v>45345</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9913,7 +9913,7 @@
         <v>45587.59827546297</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9970,7 +9970,7 @@
         <v>45481</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10032,7 +10032,7 @@
         <v>45615</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10089,7 +10089,7 @@
         <v>45189</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10146,7 +10146,7 @@
         <v>45531.69734953704</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10203,7 +10203,7 @@
         <v>45188.61318287037</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10265,7 +10265,7 @@
         <v>45145.92299768519</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10322,7 +10322,7 @@
         <v>45145.92325231482</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10379,7 +10379,7 @@
         <v>45257</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10436,7 +10436,7 @@
         <v>45744.57880787037</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10493,7 +10493,7 @@
         <v>45800.65744212963</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10550,7 +10550,7 @@
         <v>45446.6784837963</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10607,7 +10607,7 @@
         <v>45399</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10664,7 +10664,7 @@
         <v>45887.49842592593</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10721,7 +10721,7 @@
         <v>45251.33342592593</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10778,7 +10778,7 @@
         <v>45418</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10840,7 +10840,7 @@
         <v>45800.34435185185</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10902,7 +10902,7 @@
         <v>45511</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10959,7 +10959,7 @@
         <v>45128.62215277777</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11021,7 +11021,7 @@
         <v>45693.55229166667</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11078,7 +11078,7 @@
         <v>44919</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11135,7 +11135,7 @@
         <v>45649.57627314814</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11192,7 +11192,7 @@
         <v>45568</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11249,7 +11249,7 @@
         <v>45835.50796296296</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11306,7 +11306,7 @@
         <v>45889.37619212963</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11363,7 +11363,7 @@
         <v>45888.59417824074</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11425,7 +11425,7 @@
         <v>45889.36288194444</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11482,7 +11482,7 @@
         <v>45889.37246527777</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11539,7 +11539,7 @@
         <v>45645.66908564815</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11596,7 +11596,7 @@
         <v>45810.8708912037</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11653,7 +11653,7 @@
         <v>45889.36472222222</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11710,7 +11710,7 @@
         <v>45889.36733796296</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11767,7 +11767,7 @@
         <v>45889.65439814814</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11829,7 +11829,7 @@
         <v>45891.63541666666</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11891,7 +11891,7 @@
         <v>45813.53979166667</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11948,7 +11948,7 @@
         <v>45890.37449074074</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12010,7 +12010,7 @@
         <v>44475.63670138889</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12072,7 +12072,7 @@
         <v>45813.54122685185</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12129,7 +12129,7 @@
         <v>44795</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12186,7 +12186,7 @@
         <v>45813.52341435185</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12243,7 +12243,7 @@
         <v>45812.47314814815</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12300,7 +12300,7 @@
         <v>45894.65684027778</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12357,7 +12357,7 @@
         <v>45894.66121527777</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12419,7 +12419,7 @@
         <v>45895.34538194445</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12476,7 +12476,7 @@
         <v>45817.61836805556</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12538,7 +12538,7 @@
         <v>45817.63113425926</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12600,7 +12600,7 @@
         <v>45895.34515046296</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12657,7 +12657,7 @@
         <v>45895.40678240741</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12719,7 +12719,7 @@
         <v>45897</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12781,7 +12781,7 @@
         <v>45897.34454861111</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12843,7 +12843,7 @@
         <v>45897</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12905,7 +12905,7 @@
         <v>45897</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12967,7 +12967,7 @@
         <v>45897</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13029,7 +13029,7 @@
         <v>45897</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13091,7 +13091,7 @@
         <v>45187</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13153,7 +13153,7 @@
         <v>44536</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13210,7 +13210,7 @@
         <v>45898.60793981481</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13272,7 +13272,7 @@
         <v>45846.45019675926</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13329,7 +13329,7 @@
         <v>45345.34260416667</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13386,7 +13386,7 @@
         <v>44949</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13443,7 +13443,7 @@
         <v>45824.45652777778</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13500,7 +13500,7 @@
         <v>45251</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13557,7 +13557,7 @@
         <v>45756.4102199074</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13614,7 +13614,7 @@
         <v>45908.49655092593</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13671,7 +13671,7 @@
         <v>45750.46479166667</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13733,7 +13733,7 @@
         <v>45479</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13795,7 +13795,7 @@
         <v>45253.8090162037</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13852,7 +13852,7 @@
         <v>45825.56524305556</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13909,7 +13909,7 @@
         <v>44414.52152777778</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13966,7 +13966,7 @@
         <v>45659.39510416667</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14023,7 +14023,7 @@
         <v>45915.574375</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14085,7 +14085,7 @@
         <v>45915.58934027778</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14147,7 +14147,7 @@
         <v>45587.8405324074</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14224,7 +14224,7 @@
         <v>45587.84275462963</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14281,7 +14281,7 @@
         <v>45587.848125</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14338,7 +14338,7 @@
         <v>45912.39425925926</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14400,7 +14400,7 @@
         <v>45057.9408912037</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14462,7 +14462,7 @@
         <v>45602.44862268519</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14519,7 +14519,7 @@
         <v>44950.95469907407</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14576,7 +14576,7 @@
         <v>45916.65663194445</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14638,7 +14638,7 @@
         <v>45730.39814814815</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14695,7 +14695,7 @@
         <v>45831.51869212963</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14757,7 +14757,7 @@
         <v>45831.52111111111</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14819,7 +14819,7 @@
         <v>45919.49429398148</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14876,7 +14876,7 @@
         <v>45609.61846064815</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14933,7 +14933,7 @@
         <v>45602.38761574074</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14990,7 +14990,7 @@
         <v>45602.38763888889</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15047,7 +15047,7 @@
         <v>45919.48994212963</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15109,7 +15109,7 @@
         <v>44776</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15171,7 +15171,7 @@
         <v>45920.82388888889</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15228,7 +15228,7 @@
         <v>45832.61597222222</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15285,7 +15285,7 @@
         <v>45198.40074074074</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15347,7 +15347,7 @@
         <v>45924.67805555555</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15409,7 +15409,7 @@
         <v>45631.34457175926</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15471,7 +15471,7 @@
         <v>45646</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15528,7 +15528,7 @@
         <v>45929.34304398148</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15590,7 +15590,7 @@
         <v>45929.36494212963</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15647,7 +15647,7 @@
         <v>45630.66277777778</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15709,7 +15709,7 @@
         <v>45362</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15766,7 +15766,7 @@
         <v>45679.39748842592</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15823,7 +15823,7 @@
         <v>45834.33939814815</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15885,7 +15885,7 @@
         <v>45929.47361111111</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15947,7 +15947,7 @@
         <v>45929.72506944444</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16004,7 +16004,7 @@
         <v>45929.36496527777</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16061,7 +16061,7 @@
         <v>45645.58835648148</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16118,7 +16118,7 @@
         <v>45723.36034722222</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16175,7 +16175,7 @@
         <v>45929.71940972222</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16232,7 +16232,7 @@
         <v>45926.59788194444</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16294,7 +16294,7 @@
         <v>45436</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16356,7 +16356,7 @@
         <v>45436.94708333333</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16418,7 +16418,7 @@
         <v>45931.37207175926</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16475,7 +16475,7 @@
         <v>44370.65484953704</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16532,7 +16532,7 @@
         <v>45600.47861111111</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16594,7 +16594,7 @@
         <v>45835.8281712963</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16656,7 +16656,7 @@
         <v>45838.59995370371</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16713,7 +16713,7 @@
         <v>45835.87006944444</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16775,7 +16775,7 @@
         <v>45467</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16837,7 +16837,7 @@
         <v>45537</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16894,7 +16894,7 @@
         <v>45938.48</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16956,7 +16956,7 @@
         <v>45582.47464120371</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17013,7 +17013,7 @@
         <v>45582</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17070,7 +17070,7 @@
         <v>45938.63704861111</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17127,7 +17127,7 @@
         <v>45104.65298611111</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17189,7 +17189,7 @@
         <v>45678.61952546296</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17251,7 +17251,7 @@
         <v>45943.38288194445</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17308,7 +17308,7 @@
         <v>45845</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17365,7 +17365,7 @@
         <v>45190.50340277778</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17422,7 +17422,7 @@
         <v>45943.40912037037</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17479,7 +17479,7 @@
         <v>45943.40491898148</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17536,7 +17536,7 @@
         <v>45069.37450231481</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17598,7 +17598,7 @@
         <v>45846.4693287037</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17655,7 +17655,7 @@
         <v>45945.40693287037</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17712,7 +17712,7 @@
         <v>45846.45319444445</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17769,7 +17769,7 @@
         <v>45351</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17826,7 +17826,7 @@
         <v>45946.51113425926</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17883,7 +17883,7 @@
         <v>45946.61516203704</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17940,7 +17940,7 @@
         <v>45393</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17997,7 +17997,7 @@
         <v>45394</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18054,7 +18054,7 @@
         <v>45394</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18111,7 +18111,7 @@
         <v>45946.490625</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18168,7 +18168,7 @@
         <v>45946.51122685185</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18225,7 +18225,7 @@
         <v>45345</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18282,7 +18282,7 @@
         <v>45953.4543287037</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18339,7 +18339,7 @@
         <v>45867.61530092593</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18401,7 +18401,7 @@
         <v>45866.55498842592</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18458,7 +18458,7 @@
         <v>45953.41458333333</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18515,7 +18515,7 @@
         <v>45800</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18577,7 +18577,7 @@
         <v>45727.61769675926</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18634,7 +18634,7 @@
         <v>45873.71912037037</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18696,7 +18696,7 @@
         <v>45953.79050925926</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18753,7 +18753,7 @@
         <v>45565.58391203704</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18810,7 +18810,7 @@
         <v>45407.51649305555</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18872,7 +18872,7 @@
         <v>44919</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18929,7 +18929,7 @@
         <v>45614.34428240741</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18991,7 +18991,7 @@
         <v>45198.47061342592</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19053,7 +19053,7 @@
         <v>44701</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19110,7 +19110,7 @@
         <v>45874.69827546296</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19172,7 +19172,7 @@
         <v>45875.67760416667</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19234,7 +19234,7 @@
         <v>45758.63064814815</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19291,7 +19291,7 @@
         <v>44991</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19348,7 +19348,7 @@
         <v>45512</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19405,7 +19405,7 @@
         <v>45874.67782407408</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19467,7 +19467,7 @@
         <v>45874.48631944445</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19524,7 +19524,7 @@
         <v>45875.34476851852</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19586,7 +19586,7 @@
         <v>45102</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19648,7 +19648,7 @@
         <v>45880</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19705,7 +19705,7 @@
         <v>45881.40806712963</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19762,7 +19762,7 @@
         <v>45880</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19819,7 +19819,7 @@
         <v>45880</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19876,7 +19876,7 @@
         <v>45467.35814814815</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19938,7 +19938,7 @@
         <v>45881.41208333334</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19995,7 +19995,7 @@
         <v>45880.67780092593</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20057,7 +20057,7 @@
         <v>45348</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20114,7 +20114,7 @@
         <v>45881.51483796296</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20171,7 +20171,7 @@
         <v>45964.4562037037</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20228,7 +20228,7 @@
         <v>45181.38291666667</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20290,7 +20290,7 @@
         <v>45019</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20347,7 +20347,7 @@
         <v>45880</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20404,7 +20404,7 @@
         <v>45880</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20461,7 +20461,7 @@
         <v>45882.28542824074</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20518,7 +20518,7 @@
         <v>45882.63927083334</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20575,7 +20575,7 @@
         <v>45882.55125</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20632,7 +20632,7 @@
         <v>45099</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20689,7 +20689,7 @@
         <v>44998</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20746,7 +20746,7 @@
         <v>45883.65666666667</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20808,7 +20808,7 @@
         <v>45680.56597222222</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20865,7 +20865,7 @@
         <v>45883.63590277778</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20927,7 +20927,7 @@
         <v>44722</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20984,7 +20984,7 @@
         <v>45973.38936342593</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21046,7 +21046,7 @@
         <v>45882.58627314815</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21103,7 +21103,7 @@
         <v>45450.94471064815</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21165,7 +21165,7 @@
         <v>45451</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21227,7 +21227,7 @@
         <v>44784.94172453704</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21289,7 +21289,7 @@
         <v>45975.37643518519</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21346,7 +21346,7 @@
         <v>45721.445625</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21403,7 +21403,7 @@
         <v>45979.60740740741</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21465,7 +21465,7 @@
         <v>45979.65953703703</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21527,7 +21527,7 @@
         <v>45537</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21584,7 +21584,7 @@
         <v>45609.64046296296</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21641,7 +21641,7 @@
         <v>45978.30922453704</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21698,7 +21698,7 @@
         <v>45978.45061342593</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21755,7 +21755,7 @@
         <v>44785</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21817,7 +21817,7 @@
         <v>45980.3821875</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21874,7 +21874,7 @@
         <v>45981</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21931,7 +21931,7 @@
         <v>46023.84774305556</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21988,7 +21988,7 @@
         <v>44901.92403935185</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22045,7 +22045,7 @@
         <v>45175.63826388889</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22107,7 +22107,7 @@
         <v>45727.60585648148</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22164,7 +22164,7 @@
         <v>45982.44800925926</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22221,7 +22221,7 @@
         <v>45627.71203703704</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22278,7 +22278,7 @@
         <v>45737.55802083333</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22335,7 +22335,7 @@
         <v>45982.64979166666</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22392,7 +22392,7 @@
         <v>45986.62428240741</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22449,7 +22449,7 @@
         <v>45986.61917824074</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22506,7 +22506,7 @@
         <v>45232</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22563,7 +22563,7 @@
         <v>45986.37128472222</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22620,7 +22620,7 @@
         <v>45989.45841435185</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22682,7 +22682,7 @@
         <v>44756</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22739,7 +22739,7 @@
         <v>45988.70458333333</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22796,7 +22796,7 @@
         <v>46030.58759259259</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22853,7 +22853,7 @@
         <v>45989.3446412037</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22915,7 +22915,7 @@
         <v>45568.44950231481</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22972,7 +22972,7 @@
         <v>45548.56578703703</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23029,7 +23029,7 @@
         <v>45988.42684027777</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23091,7 +23091,7 @@
         <v>46028</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23148,7 +23148,7 @@
         <v>45537</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23205,7 +23205,7 @@
         <v>45988</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23262,7 +23262,7 @@
         <v>45183</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23319,7 +23319,7 @@
         <v>45993.65642361111</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23376,7 +23376,7 @@
         <v>44911.94085648148</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23438,7 +23438,7 @@
         <v>44966.67196759259</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23500,7 +23500,7 @@
         <v>45307.92592592593</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23557,7 +23557,7 @@
         <v>46034</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23614,7 +23614,7 @@
         <v>45659</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23671,7 +23671,7 @@
         <v>44899.94689814815</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23733,7 +23733,7 @@
         <v>45622.42745370371</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23795,7 +23795,7 @@
         <v>45705</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23852,7 +23852,7 @@
         <v>45755.60756944444</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23909,7 +23909,7 @@
         <v>45056</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23966,7 +23966,7 @@
         <v>45623</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24023,7 +24023,7 @@
         <v>45259</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24080,7 +24080,7 @@
         <v>45555</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24142,7 +24142,7 @@
         <v>45028.94060185185</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24204,7 +24204,7 @@
         <v>46000</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24261,7 +24261,7 @@
         <v>45616</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24318,7 +24318,7 @@
         <v>46001.43599537037</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24375,7 +24375,7 @@
         <v>46001.4212962963</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24432,7 +24432,7 @@
         <v>46001.45038194444</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24489,7 +24489,7 @@
         <v>45398</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24551,7 +24551,7 @@
         <v>46000.54172453703</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24608,7 +24608,7 @@
         <v>46001.68611111111</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24670,7 +24670,7 @@
         <v>45246.96910879629</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24732,7 +24732,7 @@
         <v>45224.75395833333</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24789,7 +24789,7 @@
         <v>46044.42516203703</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24846,7 +24846,7 @@
         <v>45280.94380787037</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24908,7 +24908,7 @@
         <v>45450</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24970,7 +24970,7 @@
         <v>45610.38056712963</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25032,7 +25032,7 @@
         <v>46002.60291666666</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25089,7 +25089,7 @@
         <v>45141</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25151,7 +25151,7 @@
         <v>45190.45606481482</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25213,7 +25213,7 @@
         <v>46006.51091435185</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25275,7 +25275,7 @@
         <v>45615.7033912037</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25332,7 +25332,7 @@
         <v>45568</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25389,7 +25389,7 @@
         <v>46007.50287037037</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25446,7 +25446,7 @@
         <v>45190.60920138889</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25508,7 +25508,7 @@
         <v>46007.88758101852</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25565,7 +25565,7 @@
         <v>46008.49011574074</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25622,7 +25622,7 @@
         <v>46008.49018518518</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25679,7 +25679,7 @@
         <v>45183</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25741,7 +25741,7 @@
         <v>45958</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25798,7 +25798,7 @@
         <v>45737.54446759259</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25855,7 +25855,7 @@
         <v>46008.51109953703</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25912,7 +25912,7 @@
         <v>45469</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25974,7 +25974,7 @@
         <v>45537</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26031,7 +26031,7 @@
         <v>46010.45041666667</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26088,7 +26088,7 @@
         <v>46055.38575231482</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26145,7 +26145,7 @@
         <v>46010</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26202,7 +26202,7 @@
         <v>45280.94303240741</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26264,7 +26264,7 @@
         <v>46010.39408564815</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26321,7 +26321,7 @@
         <v>46010</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26378,7 +26378,7 @@
         <v>46010.39568287037</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26435,7 +26435,7 @@
         <v>45259</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26492,7 +26492,7 @@
         <v>46013.61215277778</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26554,7 +26554,7 @@
         <v>44792.35222222222</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26611,7 +26611,7 @@
         <v>46055</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26668,7 +26668,7 @@
         <v>46057.58739583333</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26725,7 +26725,7 @@
         <v>46057.2996412037</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26782,7 +26782,7 @@
         <v>46057.29667824074</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26839,7 +26839,7 @@
         <v>45476</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26901,7 +26901,7 @@
         <v>46014.46296296296</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26958,7 +26958,7 @@
         <v>45260.34408564815</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -27015,7 +27015,7 @@
         <v>46041</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -27077,7 +27077,7 @@
         <v>46057.58056712963</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27134,7 +27134,7 @@
         <v>46056.41567129629</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27191,7 +27191,7 @@
         <v>46056.42645833334</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27248,7 +27248,7 @@
         <v>45169.93868055556</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27310,7 +27310,7 @@
         <v>44673</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27367,7 +27367,7 @@
         <v>45623</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27424,7 +27424,7 @@
         <v>46056.48768518519</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27481,7 +27481,7 @@
         <v>45602.38762731481</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27538,7 +27538,7 @@
         <v>45113</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27600,7 +27600,7 @@
         <v>45630</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27662,7 +27662,7 @@
         <v>45132</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27724,7 +27724,7 @@
         <v>45614</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27781,7 +27781,7 @@
         <v>45429</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27838,7 +27838,7 @@
         <v>45756.47723379629</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27895,7 +27895,7 @@
         <v>45351</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27952,7 +27952,7 @@
         <v>45726.61538194444</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -28014,7 +28014,7 @@
         <v>45394</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -28071,7 +28071,7 @@
         <v>44424</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28133,7 +28133,7 @@
         <v>45513</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28190,7 +28190,7 @@
         <v>45506</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28252,7 +28252,7 @@
         <v>45247.46681712963</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28309,7 +28309,7 @@
         <v>45293</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28366,7 +28366,7 @@
         <v>45236</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28423,7 +28423,7 @@
         <v>44806</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28480,7 +28480,7 @@
         <v>45447</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28542,7 +28542,7 @@
         <v>45141.32886574074</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28604,7 +28604,7 @@
         <v>45141.47096064815</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28666,7 +28666,7 @@
         <v>45614</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28723,7 +28723,7 @@
         <v>44788.6674537037</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28780,7 +28780,7 @@
         <v>45348</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28837,7 +28837,7 @@
         <v>45348</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28894,7 +28894,7 @@
         <v>45009.08837962963</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28956,7 +28956,7 @@
         <v>44887</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -29018,7 +29018,7 @@
         <v>45307</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -29075,7 +29075,7 @@
         <v>45587.83815972223</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29132,7 +29132,7 @@
         <v>44985</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29189,7 +29189,7 @@
         <v>45450.94480324074</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29251,7 +29251,7 @@
         <v>45342</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29308,7 +29308,7 @@
         <v>45351</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29365,7 +29365,7 @@
         <v>45433.94342592593</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29427,7 +29427,7 @@
         <v>45649</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29484,7 +29484,7 @@
         <v>45649.3635300926</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29541,7 +29541,7 @@
         <v>45602.4377662037</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29598,7 +29598,7 @@
         <v>44494</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29655,7 +29655,7 @@
         <v>44608</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29712,7 +29712,7 @@
         <v>44608.66927083334</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29769,7 +29769,7 @@
         <v>45148.47032407407</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29831,7 +29831,7 @@
         <v>45148</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29893,7 +29893,7 @@
         <v>45547</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29955,7 +29955,7 @@
         <v>45190</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -30017,7 +30017,7 @@
         <v>45602</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -30079,7 +30079,7 @@
         <v>45406</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -30136,7 +30136,7 @@
         <v>44977</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30198,7 +30198,7 @@
         <v>44424.94164351852</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30260,7 +30260,7 @@
         <v>45090.70563657407</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30317,7 +30317,7 @@
         <v>45693.45158564814</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30374,7 +30374,7 @@
         <v>45642.70561342593</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30436,7 +30436,7 @@
         <v>45189.44546296296</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30498,7 +30498,7 @@
         <v>44978.92381944445</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30555,7 +30555,7 @@
         <v>44911</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30617,7 +30617,7 @@
         <v>45224.88442129629</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30674,7 +30674,7 @@
         <v>45512</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30731,7 +30731,7 @@
         <v>45539</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30788,7 +30788,7 @@
         <v>45659.44478009259</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30845,7 +30845,7 @@
         <v>44924</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30907,7 +30907,7 @@
         <v>45609.64043981482</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30964,7 +30964,7 @@
         <v>44557</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -31021,7 +31021,7 @@
         <v>45357</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -31078,7 +31078,7 @@
         <v>44916.9260300926</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31135,7 +31135,7 @@
         <v>45429.92396990741</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31192,7 +31192,7 @@
         <v>45590.48991898148</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31249,7 +31249,7 @@
         <v>45565.34449074074</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31306,7 +31306,7 @@
         <v>45749.60484953703</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31363,7 +31363,7 @@
         <v>45076</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31420,7 +31420,7 @@
         <v>45072.47021990741</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31477,7 +31477,7 @@
         <v>45139</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31534,7 +31534,7 @@
         <v>44866</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31591,7 +31591,7 @@
         <v>45609.67881944445</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31648,7 +31648,7 @@
         <v>45436.94701388889</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31710,7 +31710,7 @@
         <v>45168</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31767,7 +31767,7 @@
         <v>44441</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31824,7 +31824,7 @@
         <v>45600.55559027778</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31886,7 +31886,7 @@
         <v>45712.39594907407</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31948,7 +31948,7 @@
         <v>45645.60092592592</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -32005,7 +32005,7 @@
         <v>45749.44096064815</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -32062,7 +32062,7 @@
         <v>45638.63533564815</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -32119,7 +32119,7 @@
         <v>45784.42898148148</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32176,7 +32176,7 @@
         <v>45785.46921296296</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32233,7 +32233,7 @@
         <v>45785.46922453704</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32290,7 +32290,7 @@
         <v>45785.84664351852</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32352,7 +32352,7 @@
         <v>45786.34450231482</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32414,7 +32414,7 @@
         <v>45785.84648148148</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32476,7 +32476,7 @@
         <v>45790</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32533,7 +32533,7 @@
         <v>45484.71327546296</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32590,7 +32590,7 @@
         <v>45567</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>

--- a/Översikt BJURHOLM.xlsx
+++ b/Översikt BJURHOLM.xlsx
@@ -575,7 +575,7 @@
         <v>45831</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -713,7 +713,7 @@
         <v>44312</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -836,7 +836,7 @@
         <v>44336</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -961,7 +961,7 @@
         <v>45884.42804398148</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>45467</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1207,7 +1207,7 @@
         <v>45503</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1325,7 +1325,7 @@
         <v>45519</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1443,7 +1443,7 @@
         <v>45519</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1561,7 +1561,7 @@
         <v>45280</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1676,7 +1676,7 @@
         <v>44691</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1786,7 +1786,7 @@
         <v>45586</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1896,7 +1896,7 @@
         <v>45827</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -2009,7 +2009,7 @@
         <v>44896</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2122,7 +2122,7 @@
         <v>45742</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         <v>45607</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2326,7 +2326,7 @@
         <v>45057</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2426,7 +2426,7 @@
         <v>45456.62347222222</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2525,7 +2525,7 @@
         <v>44648</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2627,7 +2627,7 @@
         <v>45447</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2730,7 +2730,7 @@
         <v>44277</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2826,7 +2826,7 @@
         <v>44694</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2925,7 +2925,7 @@
         <v>45761.4652199074</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -3015,7 +3015,7 @@
         <v>45884.47008101852</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3114,7 +3114,7 @@
         <v>45009</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3208,7 +3208,7 @@
         <v>45043</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3297,7 +3297,7 @@
         <v>44881</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3386,7 +3386,7 @@
         <v>46057.38619212963</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         <v>44588</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3567,7 +3567,7 @@
         <v>45973.63479166666</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3655,7 +3655,7 @@
         <v>46000.4275462963</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3752,7 +3752,7 @@
         <v>45635</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3844,7 +3844,7 @@
         <v>45981.56534722223</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3935,7 +3935,7 @@
         <v>45246</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4027,7 +4027,7 @@
         <v>46001.68449074074</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>46010.46971064815</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4209,7 +4209,7 @@
         <v>45471.94290509259</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4300,7 +4300,7 @@
         <v>45645</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4386,7 +4386,7 @@
         <v>45113</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4481,7 +4481,7 @@
         <v>44277</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4571,7 +4571,7 @@
         <v>45659</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4656,7 +4656,7 @@
         <v>44897.43052083333</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4746,7 +4746,7 @@
         <v>45404</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4831,7 +4831,7 @@
         <v>45915.55253472222</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4921,7 +4921,7 @@
         <v>45929.5741087963</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -5006,7 +5006,7 @@
         <v>45252</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5096,7 +5096,7 @@
         <v>45656</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5181,7 +5181,7 @@
         <v>45975.34778935185</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5271,7 +5271,7 @@
         <v>45981.30391203704</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5361,7 +5361,7 @@
         <v>45747.68127314815</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5450,7 +5450,7 @@
         <v>46001.68668981481</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5540,7 +5540,7 @@
         <v>46013.56092592593</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5630,7 +5630,7 @@
         <v>44665</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5720,7 +5720,7 @@
         <v>45440</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5810,7 +5810,7 @@
         <v>44484</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5900,7 +5900,7 @@
         <v>45513</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5989,7 +5989,7 @@
         <v>46072.52524305556</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6074,7 +6074,7 @@
         <v>44279</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6131,7 +6131,7 @@
         <v>44679</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6188,7 +6188,7 @@
         <v>44524</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6245,7 +6245,7 @@
         <v>44300.93118055556</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6307,7 +6307,7 @@
         <v>44746</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6364,7 +6364,7 @@
         <v>44774</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6421,7 +6421,7 @@
         <v>44831.43211805556</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6478,7 +6478,7 @@
         <v>44818</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6535,7 +6535,7 @@
         <v>44375</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6592,7 +6592,7 @@
         <v>44370</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6649,7 +6649,7 @@
         <v>44844</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         <v>44865</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6763,7 +6763,7 @@
         <v>45260.96586805556</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6825,7 +6825,7 @@
         <v>44844.92738425926</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6882,7 +6882,7 @@
         <v>44397</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6939,7 +6939,7 @@
         <v>44831.42108796296</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6996,7 +6996,7 @@
         <v>44864.69234953704</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7053,7 +7053,7 @@
         <v>44461</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7110,7 +7110,7 @@
         <v>44461</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7167,7 +7167,7 @@
         <v>44462</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7224,7 +7224,7 @@
         <v>44504.48643518519</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7286,7 +7286,7 @@
         <v>44484.98724537037</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7348,7 +7348,7 @@
         <v>44608.67099537037</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7405,7 +7405,7 @@
         <v>44701.45046296297</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7467,7 +7467,7 @@
         <v>44551</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7524,7 +7524,7 @@
         <v>44397.55902777778</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7581,7 +7581,7 @@
         <v>44620</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7638,7 +7638,7 @@
         <v>44770</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7700,7 +7700,7 @@
         <v>44608</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7757,7 +7757,7 @@
         <v>44580</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7819,7 +7819,7 @@
         <v>44834.58712962963</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7881,7 +7881,7 @@
         <v>44490.66326388889</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7943,7 +7943,7 @@
         <v>44680</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8000,7 +8000,7 @@
         <v>44802.65265046297</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8062,7 +8062,7 @@
         <v>44608.6668287037</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8119,7 +8119,7 @@
         <v>44740.47321759259</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8181,7 +8181,7 @@
         <v>44743.94396990741</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8243,7 +8243,7 @@
         <v>44602</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8305,7 +8305,7 @@
         <v>44826</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8362,7 +8362,7 @@
         <v>44599</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8419,7 +8419,7 @@
         <v>44862.44689814815</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8476,7 +8476,7 @@
         <v>44620</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8533,7 +8533,7 @@
         <v>44620</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8590,7 +8590,7 @@
         <v>44524</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8647,7 +8647,7 @@
         <v>44524</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8704,7 +8704,7 @@
         <v>44774</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8761,7 +8761,7 @@
         <v>44490</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8818,7 +8818,7 @@
         <v>44484.98746527778</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8880,7 +8880,7 @@
         <v>45469</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8937,7 +8937,7 @@
         <v>45649</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8994,7 +8994,7 @@
         <v>45601.41592592592</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9056,7 +9056,7 @@
         <v>45611</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9113,7 +9113,7 @@
         <v>45471.9431712963</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9175,7 +9175,7 @@
         <v>45537</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9232,7 +9232,7 @@
         <v>44914.97001157407</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9294,7 +9294,7 @@
         <v>45736</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9351,7 +9351,7 @@
         <v>44918</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9413,7 +9413,7 @@
         <v>45117.95247685185</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9475,7 +9475,7 @@
         <v>45195</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9532,7 +9532,7 @@
         <v>45451</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9594,7 +9594,7 @@
         <v>45536</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9651,7 +9651,7 @@
         <v>45602.3874537037</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9708,7 +9708,7 @@
         <v>45630</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9770,7 +9770,7 @@
         <v>44827</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9827,7 +9827,7 @@
         <v>45247.47538194444</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9884,7 +9884,7 @@
         <v>45345</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9941,7 +9941,7 @@
         <v>45587.59827546297</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9998,7 +9998,7 @@
         <v>45481</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10060,7 +10060,7 @@
         <v>45615</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10117,7 +10117,7 @@
         <v>45189</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10174,7 +10174,7 @@
         <v>45531.69734953704</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10231,7 +10231,7 @@
         <v>45145.92299768519</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10288,7 +10288,7 @@
         <v>45145.92325231482</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10345,7 +10345,7 @@
         <v>45257</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10402,7 +10402,7 @@
         <v>45744.57880787037</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10459,7 +10459,7 @@
         <v>45188.61318287037</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10521,7 +10521,7 @@
         <v>45446.6784837963</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10578,7 +10578,7 @@
         <v>45399</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10635,7 +10635,7 @@
         <v>45511</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10692,7 +10692,7 @@
         <v>45418</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10754,7 +10754,7 @@
         <v>45693.55229166667</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10811,7 +10811,7 @@
         <v>45128.62215277777</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10873,7 +10873,7 @@
         <v>44919</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10930,7 +10930,7 @@
         <v>45649.57627314814</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10987,7 +10987,7 @@
         <v>45568</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11044,7 +11044,7 @@
         <v>45645.66908564815</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11101,7 +11101,7 @@
         <v>44475.63670138889</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11163,7 +11163,7 @@
         <v>44795</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11220,7 +11220,7 @@
         <v>45887.49842592593</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11277,7 +11277,7 @@
         <v>45187</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11339,7 +11339,7 @@
         <v>44536</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11396,7 +11396,7 @@
         <v>45835.50796296296</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11453,7 +11453,7 @@
         <v>45889.37619212963</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11510,7 +11510,7 @@
         <v>45888.59417824074</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11572,7 +11572,7 @@
         <v>45889.36288194444</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11629,7 +11629,7 @@
         <v>45889.37246527777</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11686,7 +11686,7 @@
         <v>45825.56524305556</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11743,7 +11743,7 @@
         <v>45345.34260416667</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11800,7 +11800,7 @@
         <v>45889.36472222222</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11857,7 +11857,7 @@
         <v>45889.36733796296</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11914,7 +11914,7 @@
         <v>45889.65439814814</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11976,7 +11976,7 @@
         <v>45891.63541666666</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12038,7 +12038,7 @@
         <v>45890.37449074074</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12100,7 +12100,7 @@
         <v>44949</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12157,7 +12157,7 @@
         <v>45251</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12214,7 +12214,7 @@
         <v>45750.46479166667</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12276,7 +12276,7 @@
         <v>45479</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12338,7 +12338,7 @@
         <v>45894.65684027778</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12395,7 +12395,7 @@
         <v>45894.66121527777</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12457,7 +12457,7 @@
         <v>45895.34538194445</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12514,7 +12514,7 @@
         <v>45253.8090162037</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12571,7 +12571,7 @@
         <v>45895.34515046296</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12628,7 +12628,7 @@
         <v>45895.40678240741</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12690,7 +12690,7 @@
         <v>45831.51869212963</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12752,7 +12752,7 @@
         <v>45831.52111111111</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12814,7 +12814,7 @@
         <v>44414.52152777778</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12871,7 +12871,7 @@
         <v>45897</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12933,7 +12933,7 @@
         <v>45897.34454861111</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12995,7 +12995,7 @@
         <v>45659.39510416667</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13052,7 +13052,7 @@
         <v>45897</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13114,7 +13114,7 @@
         <v>45897</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13176,7 +13176,7 @@
         <v>45832.61597222222</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13233,7 +13233,7 @@
         <v>45897</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13295,7 +13295,7 @@
         <v>45897</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13357,7 +13357,7 @@
         <v>45587.8405324074</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13434,7 +13434,7 @@
         <v>45587.84275462963</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13491,7 +13491,7 @@
         <v>45587.848125</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13548,7 +13548,7 @@
         <v>45057.9408912037</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13610,7 +13610,7 @@
         <v>45898.60793981481</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13672,7 +13672,7 @@
         <v>45846.45019675926</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13729,7 +13729,7 @@
         <v>45602.44862268519</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13786,7 +13786,7 @@
         <v>44950.95469907407</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13843,7 +13843,7 @@
         <v>45834.33939814815</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13905,7 +13905,7 @@
         <v>45730.39814814815</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13962,7 +13962,7 @@
         <v>45609.61846064815</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14019,7 +14019,7 @@
         <v>45602.38761574074</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14076,7 +14076,7 @@
         <v>45602.38763888889</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14133,7 +14133,7 @@
         <v>44776</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14195,7 +14195,7 @@
         <v>45835.8281712963</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14257,7 +14257,7 @@
         <v>45824.45652777778</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14314,7 +14314,7 @@
         <v>45198.40074074074</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14376,7 +14376,7 @@
         <v>45756.4102199074</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14433,7 +14433,7 @@
         <v>45908.49655092593</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14490,7 +14490,7 @@
         <v>45838.59995370371</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14547,7 +14547,7 @@
         <v>45835.87006944444</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14609,7 +14609,7 @@
         <v>45631.34457175926</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14671,7 +14671,7 @@
         <v>45845</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14728,7 +14728,7 @@
         <v>45646</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14785,7 +14785,7 @@
         <v>45630.66277777778</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14847,7 +14847,7 @@
         <v>45362</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14904,7 +14904,7 @@
         <v>45679.39748842592</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14961,7 +14961,7 @@
         <v>45915.574375</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15023,7 +15023,7 @@
         <v>45915.58934027778</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15085,7 +15085,7 @@
         <v>45912.39425925926</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15147,7 +15147,7 @@
         <v>45846.4693287037</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15204,7 +15204,7 @@
         <v>45645.58835648148</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15261,7 +15261,7 @@
         <v>45723.36034722222</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15318,7 +15318,7 @@
         <v>45846.45319444445</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15375,7 +15375,7 @@
         <v>45436</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15437,7 +15437,7 @@
         <v>45436.94708333333</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15499,7 +15499,7 @@
         <v>45916.65663194445</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15561,7 +15561,7 @@
         <v>44370.65484953704</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15618,7 +15618,7 @@
         <v>45600.47861111111</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15680,7 +15680,7 @@
         <v>45919.49429398148</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15737,7 +15737,7 @@
         <v>45919.48994212963</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15799,7 +15799,7 @@
         <v>45920.82388888889</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15856,7 +15856,7 @@
         <v>45467</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15918,7 +15918,7 @@
         <v>45924.67805555555</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15980,7 +15980,7 @@
         <v>45867.61530092593</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16042,7 +16042,7 @@
         <v>45866.55498842592</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16099,7 +16099,7 @@
         <v>45582.47464120371</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16156,7 +16156,7 @@
         <v>45582</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16213,7 +16213,7 @@
         <v>45800</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16275,7 +16275,7 @@
         <v>45929.34304398148</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16337,7 +16337,7 @@
         <v>45929.36494212963</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16394,7 +16394,7 @@
         <v>45873.71912037037</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16456,7 +16456,7 @@
         <v>45104.65298611111</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16518,7 +16518,7 @@
         <v>45565.58391203704</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16575,7 +16575,7 @@
         <v>45929.47361111111</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16637,7 +16637,7 @@
         <v>45929.72506944444</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16694,7 +16694,7 @@
         <v>45678.61952546296</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16756,7 +16756,7 @@
         <v>45929.36496527777</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16813,7 +16813,7 @@
         <v>45929.71940972222</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16870,7 +16870,7 @@
         <v>45926.59788194444</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16932,7 +16932,7 @@
         <v>45190.50340277778</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16989,7 +16989,7 @@
         <v>45198.47061342592</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17051,7 +17051,7 @@
         <v>45931.37207175926</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17108,7 +17108,7 @@
         <v>45874.69827546296</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17170,7 +17170,7 @@
         <v>45069.37450231481</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17232,7 +17232,7 @@
         <v>45875.67760416667</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17294,7 +17294,7 @@
         <v>45758.63064814815</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17351,7 +17351,7 @@
         <v>45874.67782407408</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17413,7 +17413,7 @@
         <v>45874.48631944445</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17470,7 +17470,7 @@
         <v>45875.34476851852</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17532,7 +17532,7 @@
         <v>45351</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17589,7 +17589,7 @@
         <v>45393</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17646,7 +17646,7 @@
         <v>45394</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17703,7 +17703,7 @@
         <v>45394</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17760,7 +17760,7 @@
         <v>45880</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17817,7 +17817,7 @@
         <v>45881.40806712963</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17874,7 +17874,7 @@
         <v>45880</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17931,7 +17931,7 @@
         <v>45880</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17988,7 +17988,7 @@
         <v>45881.41208333334</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18045,7 +18045,7 @@
         <v>45880.67780092593</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18107,7 +18107,7 @@
         <v>45881.51483796296</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18164,7 +18164,7 @@
         <v>45345</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18221,7 +18221,7 @@
         <v>45880</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18278,7 +18278,7 @@
         <v>45880</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18335,7 +18335,7 @@
         <v>45882.28542824074</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18392,7 +18392,7 @@
         <v>45882.63927083334</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18449,7 +18449,7 @@
         <v>45882.55125</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18506,7 +18506,7 @@
         <v>45883.65666666667</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18568,7 +18568,7 @@
         <v>45537</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18625,7 +18625,7 @@
         <v>45883.63590277778</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18687,7 +18687,7 @@
         <v>45938.48</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18749,7 +18749,7 @@
         <v>45882.58627314815</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18806,7 +18806,7 @@
         <v>45938.63704861111</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18863,7 +18863,7 @@
         <v>45727.61769675926</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18920,7 +18920,7 @@
         <v>45943.38288194445</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18977,7 +18977,7 @@
         <v>45943.40912037037</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19034,7 +19034,7 @@
         <v>45943.40491898148</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19091,7 +19091,7 @@
         <v>45407.51649305555</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19153,7 +19153,7 @@
         <v>44919</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19210,7 +19210,7 @@
         <v>45614.34428240741</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19272,7 +19272,7 @@
         <v>45945.40693287037</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19329,7 +19329,7 @@
         <v>44701</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19386,7 +19386,7 @@
         <v>45946.51113425926</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19443,7 +19443,7 @@
         <v>45946.61516203704</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19500,7 +19500,7 @@
         <v>44991</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19557,7 +19557,7 @@
         <v>45512</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19614,7 +19614,7 @@
         <v>45946.490625</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19671,7 +19671,7 @@
         <v>45946.51122685185</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19728,7 +19728,7 @@
         <v>45102</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19790,7 +19790,7 @@
         <v>45953.4543287037</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19847,7 +19847,7 @@
         <v>45467.35814814815</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19909,7 +19909,7 @@
         <v>45348</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19966,7 +19966,7 @@
         <v>45181.38291666667</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20028,7 +20028,7 @@
         <v>45019</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20085,7 +20085,7 @@
         <v>45953.41458333333</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20142,7 +20142,7 @@
         <v>45099</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20199,7 +20199,7 @@
         <v>45953.79050925926</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20256,7 +20256,7 @@
         <v>44998</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20313,7 +20313,7 @@
         <v>45680.56597222222</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20370,7 +20370,7 @@
         <v>44722</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20427,7 +20427,7 @@
         <v>45450.94471064815</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20489,7 +20489,7 @@
         <v>45451</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20551,7 +20551,7 @@
         <v>44784.94172453704</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20613,7 +20613,7 @@
         <v>45721.445625</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20670,7 +20670,7 @@
         <v>45964.4562037037</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20727,7 +20727,7 @@
         <v>45537</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20784,7 +20784,7 @@
         <v>45609.64046296296</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20841,7 +20841,7 @@
         <v>44785</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20903,7 +20903,7 @@
         <v>44901.92403935185</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20960,7 +20960,7 @@
         <v>45175.63826388889</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21022,7 +21022,7 @@
         <v>45727.60585648148</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21079,7 +21079,7 @@
         <v>45973.38936342593</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21141,7 +21141,7 @@
         <v>45627.71203703704</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21198,7 +21198,7 @@
         <v>45737.55802083333</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21255,7 +21255,7 @@
         <v>45975.37643518519</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21312,7 +21312,7 @@
         <v>45979.60740740741</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21374,7 +21374,7 @@
         <v>45232</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21431,7 +21431,7 @@
         <v>45979.65953703703</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21493,7 +21493,7 @@
         <v>45978.30922453704</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21550,7 +21550,7 @@
         <v>45978.45061342593</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21607,7 +21607,7 @@
         <v>45980.3821875</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21664,7 +21664,7 @@
         <v>44756</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21721,7 +21721,7 @@
         <v>45981</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21778,7 +21778,7 @@
         <v>45568.44950231481</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21835,7 +21835,7 @@
         <v>45548.56578703703</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21892,7 +21892,7 @@
         <v>45982.44800925926</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21949,7 +21949,7 @@
         <v>45982.64979166666</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22006,7 +22006,7 @@
         <v>45537</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22063,7 +22063,7 @@
         <v>45986.62428240741</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22120,7 +22120,7 @@
         <v>45183</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22177,7 +22177,7 @@
         <v>44911.94085648148</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22239,7 +22239,7 @@
         <v>45986.61917824074</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22296,7 +22296,7 @@
         <v>45986.37128472222</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22353,7 +22353,7 @@
         <v>45989.45841435185</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22415,7 +22415,7 @@
         <v>45988.70458333333</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22472,7 +22472,7 @@
         <v>44966.67196759259</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22534,7 +22534,7 @@
         <v>45989.3446412037</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22596,7 +22596,7 @@
         <v>45988.42684027777</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22658,7 +22658,7 @@
         <v>45307.92592592593</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22715,7 +22715,7 @@
         <v>45659</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22772,7 +22772,7 @@
         <v>44899.94689814815</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22834,7 +22834,7 @@
         <v>45622.42745370371</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22896,7 +22896,7 @@
         <v>45705</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22953,7 +22953,7 @@
         <v>45988</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23010,7 +23010,7 @@
         <v>45755.60756944444</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23067,7 +23067,7 @@
         <v>45993.65642361111</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23124,7 +23124,7 @@
         <v>45056</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23181,7 +23181,7 @@
         <v>45623</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23238,7 +23238,7 @@
         <v>46034</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23295,7 +23295,7 @@
         <v>45259</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23352,7 +23352,7 @@
         <v>45555</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23414,7 +23414,7 @@
         <v>45028.94060185185</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23476,7 +23476,7 @@
         <v>45616</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23533,7 +23533,7 @@
         <v>45398</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23595,7 +23595,7 @@
         <v>46000</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23652,7 +23652,7 @@
         <v>45246.96910879629</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23714,7 +23714,7 @@
         <v>45224.75395833333</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23771,7 +23771,7 @@
         <v>46001.43599537037</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23828,7 +23828,7 @@
         <v>46001.4212962963</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23885,7 +23885,7 @@
         <v>46001.45038194444</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23942,7 +23942,7 @@
         <v>45280.94380787037</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24004,7 +24004,7 @@
         <v>45450</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24066,7 +24066,7 @@
         <v>45610.38056712963</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24128,7 +24128,7 @@
         <v>46000.54172453703</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24185,7 +24185,7 @@
         <v>45141</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24247,7 +24247,7 @@
         <v>46001.68611111111</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24309,7 +24309,7 @@
         <v>45190.45606481482</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24371,7 +24371,7 @@
         <v>45615.7033912037</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24428,7 +24428,7 @@
         <v>45568</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24485,7 +24485,7 @@
         <v>46002.60291666666</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24542,7 +24542,7 @@
         <v>46006.51091435185</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24604,7 +24604,7 @@
         <v>45190.60920138889</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24666,7 +24666,7 @@
         <v>46007.50287037037</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24723,7 +24723,7 @@
         <v>45183</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24785,7 +24785,7 @@
         <v>45737.54446759259</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24842,7 +24842,7 @@
         <v>46007.88758101852</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24899,7 +24899,7 @@
         <v>46008.49011574074</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24956,7 +24956,7 @@
         <v>46008.49018518518</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25013,7 +25013,7 @@
         <v>45537</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25070,7 +25070,7 @@
         <v>45958</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25127,7 +25127,7 @@
         <v>45280.94303240741</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25189,7 +25189,7 @@
         <v>46008.51109953703</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25246,7 +25246,7 @@
         <v>45259</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25303,7 +25303,7 @@
         <v>44792.35222222222</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25360,7 +25360,7 @@
         <v>46010.45041666667</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25417,7 +25417,7 @@
         <v>46055.38575231482</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25474,7 +25474,7 @@
         <v>46010</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25531,7 +25531,7 @@
         <v>46010.39408564815</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25588,7 +25588,7 @@
         <v>46010</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25645,7 +25645,7 @@
         <v>46010.39568287037</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25702,7 +25702,7 @@
         <v>46013.61215277778</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25764,7 +25764,7 @@
         <v>45476</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25826,7 +25826,7 @@
         <v>45260.34408564815</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25883,7 +25883,7 @@
         <v>46055</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25940,7 +25940,7 @@
         <v>46057.58739583333</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25997,7 +25997,7 @@
         <v>45169.93868055556</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26059,7 +26059,7 @@
         <v>46057.2996412037</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26116,7 +26116,7 @@
         <v>44673</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26173,7 +26173,7 @@
         <v>46057.29667824074</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26230,7 +26230,7 @@
         <v>46014.46296296296</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26287,7 +26287,7 @@
         <v>46041</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26349,7 +26349,7 @@
         <v>45623</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26406,7 +26406,7 @@
         <v>46057.58056712963</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26463,7 +26463,7 @@
         <v>46056.41567129629</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26520,7 +26520,7 @@
         <v>46056.42645833334</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26577,7 +26577,7 @@
         <v>45602.38762731481</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26634,7 +26634,7 @@
         <v>46056.48768518519</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26691,7 +26691,7 @@
         <v>45113</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26753,7 +26753,7 @@
         <v>45630</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26815,7 +26815,7 @@
         <v>45132</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26877,7 +26877,7 @@
         <v>45614</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26934,7 +26934,7 @@
         <v>46065.59229166667</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26991,7 +26991,7 @@
         <v>45429</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -27048,7 +27048,7 @@
         <v>45756.47723379629</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -27105,7 +27105,7 @@
         <v>45351</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27162,7 +27162,7 @@
         <v>45726.61538194444</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27224,7 +27224,7 @@
         <v>45394</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27281,7 +27281,7 @@
         <v>44424</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27343,7 +27343,7 @@
         <v>46023.84774305556</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27400,7 +27400,7 @@
         <v>45513</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27457,7 +27457,7 @@
         <v>46066.59456018519</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27514,7 +27514,7 @@
         <v>45506</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27576,7 +27576,7 @@
         <v>45247.46681712963</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27633,7 +27633,7 @@
         <v>45293</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27690,7 +27690,7 @@
         <v>46028</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27747,7 +27747,7 @@
         <v>45236</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27804,7 +27804,7 @@
         <v>46044.42516203703</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27861,7 +27861,7 @@
         <v>46070.53387731482</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27918,7 +27918,7 @@
         <v>44806</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27975,7 +27975,7 @@
         <v>45447</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -28037,7 +28037,7 @@
         <v>46030.58759259259</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -28094,7 +28094,7 @@
         <v>45141.32886574074</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28156,7 +28156,7 @@
         <v>45141.47096064815</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28218,7 +28218,7 @@
         <v>45469</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28280,7 +28280,7 @@
         <v>45614</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28337,7 +28337,7 @@
         <v>44788.6674537037</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28394,7 +28394,7 @@
         <v>45348</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28451,7 +28451,7 @@
         <v>45348</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28508,7 +28508,7 @@
         <v>45009.08837962963</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28570,7 +28570,7 @@
         <v>44887</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28632,7 +28632,7 @@
         <v>45307</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28689,7 +28689,7 @@
         <v>45587.83815972223</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28746,7 +28746,7 @@
         <v>44985</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28803,7 +28803,7 @@
         <v>45450.94480324074</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28865,7 +28865,7 @@
         <v>45342</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28922,7 +28922,7 @@
         <v>45351</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28979,7 +28979,7 @@
         <v>45433.94342592593</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -29041,7 +29041,7 @@
         <v>45649</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -29098,7 +29098,7 @@
         <v>45649.3635300926</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29155,7 +29155,7 @@
         <v>45602.4377662037</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29212,7 +29212,7 @@
         <v>44494</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29269,7 +29269,7 @@
         <v>44608</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29326,7 +29326,7 @@
         <v>44608.66927083334</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29383,7 +29383,7 @@
         <v>45148.47032407407</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29445,7 +29445,7 @@
         <v>45148</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29507,7 +29507,7 @@
         <v>45547</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29569,7 +29569,7 @@
         <v>45190</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29631,7 +29631,7 @@
         <v>45602</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29693,7 +29693,7 @@
         <v>45406</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29750,7 +29750,7 @@
         <v>44977</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29812,7 +29812,7 @@
         <v>44424.94164351852</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29874,7 +29874,7 @@
         <v>45090.70563657407</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29931,7 +29931,7 @@
         <v>45693.45158564814</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29988,7 +29988,7 @@
         <v>45642.70561342593</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -30050,7 +30050,7 @@
         <v>45189.44546296296</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -30112,7 +30112,7 @@
         <v>44978.92381944445</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -30169,7 +30169,7 @@
         <v>44911</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30231,7 +30231,7 @@
         <v>45224.88442129629</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30288,7 +30288,7 @@
         <v>45512</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30345,7 +30345,7 @@
         <v>45539</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30402,7 +30402,7 @@
         <v>45659.44478009259</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30459,7 +30459,7 @@
         <v>44924</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30521,7 +30521,7 @@
         <v>45609.64043981482</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30578,7 +30578,7 @@
         <v>44557</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30635,7 +30635,7 @@
         <v>45357</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30692,7 +30692,7 @@
         <v>44916.9260300926</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30749,7 +30749,7 @@
         <v>45429.92396990741</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30806,7 +30806,7 @@
         <v>45590.48991898148</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30863,7 +30863,7 @@
         <v>45565.34449074074</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30920,7 +30920,7 @@
         <v>45749.60484953703</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30977,7 +30977,7 @@
         <v>45076</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -31034,7 +31034,7 @@
         <v>45072.47021990741</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -31091,7 +31091,7 @@
         <v>45139</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31148,7 +31148,7 @@
         <v>44866</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31205,7 +31205,7 @@
         <v>45609.67881944445</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31262,7 +31262,7 @@
         <v>45436.94701388889</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31324,7 +31324,7 @@
         <v>45168</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31381,7 +31381,7 @@
         <v>44441</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31438,7 +31438,7 @@
         <v>45600.55559027778</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31500,7 +31500,7 @@
         <v>45712.39594907407</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31562,7 +31562,7 @@
         <v>45645.60092592592</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31619,7 +31619,7 @@
         <v>45749.44096064815</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31676,7 +31676,7 @@
         <v>45638.63533564815</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31733,7 +31733,7 @@
         <v>45784.42898148148</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31790,7 +31790,7 @@
         <v>45785.46921296296</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31847,7 +31847,7 @@
         <v>45785.46922453704</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31904,7 +31904,7 @@
         <v>45785.84664351852</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31966,7 +31966,7 @@
         <v>45786.34450231482</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -32028,7 +32028,7 @@
         <v>45785.84648148148</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -32090,7 +32090,7 @@
         <v>45790</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -32147,7 +32147,7 @@
         <v>45484.71327546296</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32204,7 +32204,7 @@
         <v>45567</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32261,7 +32261,7 @@
         <v>45800.65744212963</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32318,7 +32318,7 @@
         <v>45251.33342592593</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32375,7 +32375,7 @@
         <v>45800.34435185185</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32437,7 +32437,7 @@
         <v>45810.8708912037</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32494,7 +32494,7 @@
         <v>45813.53979166667</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32551,7 +32551,7 @@
         <v>45813.54122685185</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32608,7 +32608,7 @@
         <v>45813.52341435185</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32665,7 +32665,7 @@
         <v>45812.47314814815</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32722,7 +32722,7 @@
         <v>45817.61836805556</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32784,7 +32784,7 @@
         <v>45817.63113425926</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>

--- a/Översikt BJURHOLM.xlsx
+++ b/Översikt BJURHOLM.xlsx
@@ -575,7 +575,7 @@
         <v>45831</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -713,7 +713,7 @@
         <v>44312</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -836,7 +836,7 @@
         <v>44336</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -961,7 +961,7 @@
         <v>45884.42804398148</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>45467</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1207,7 +1207,7 @@
         <v>45503</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1325,7 +1325,7 @@
         <v>45519</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1443,7 +1443,7 @@
         <v>45519</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1561,7 +1561,7 @@
         <v>45280</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1676,7 +1676,7 @@
         <v>44691</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1786,7 +1786,7 @@
         <v>45586</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1896,7 +1896,7 @@
         <v>45827</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -2009,7 +2009,7 @@
         <v>44896</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2122,7 +2122,7 @@
         <v>45742</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         <v>45607</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2326,7 +2326,7 @@
         <v>45057</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2426,7 +2426,7 @@
         <v>45456.62347222222</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2525,7 +2525,7 @@
         <v>44648</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2627,7 +2627,7 @@
         <v>45447</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2730,7 +2730,7 @@
         <v>44277</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2826,7 +2826,7 @@
         <v>44694</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2925,7 +2925,7 @@
         <v>45761.4652199074</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -3015,7 +3015,7 @@
         <v>45884.47008101852</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3114,7 +3114,7 @@
         <v>45009</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3208,7 +3208,7 @@
         <v>45043</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3297,7 +3297,7 @@
         <v>44881</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3386,7 +3386,7 @@
         <v>46057.38619212963</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         <v>44588</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3567,7 +3567,7 @@
         <v>45973.63479166666</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3655,7 +3655,7 @@
         <v>46000.4275462963</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3752,7 +3752,7 @@
         <v>45635</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3844,7 +3844,7 @@
         <v>45981.56534722223</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3935,7 +3935,7 @@
         <v>45246</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4027,7 +4027,7 @@
         <v>46001.68449074074</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>46010.46971064815</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4209,7 +4209,7 @@
         <v>45471.94290509259</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4300,7 +4300,7 @@
         <v>45645</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4386,7 +4386,7 @@
         <v>45113</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4481,7 +4481,7 @@
         <v>44277</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4571,7 +4571,7 @@
         <v>45659</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4656,7 +4656,7 @@
         <v>44897.43052083333</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4746,7 +4746,7 @@
         <v>45404</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4831,7 +4831,7 @@
         <v>45915.55253472222</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4921,7 +4921,7 @@
         <v>45929.5741087963</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -5006,7 +5006,7 @@
         <v>45252</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5096,7 +5096,7 @@
         <v>45656</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5181,7 +5181,7 @@
         <v>45975.34778935185</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5271,7 +5271,7 @@
         <v>45981.30391203704</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5361,7 +5361,7 @@
         <v>45747.68127314815</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5450,7 +5450,7 @@
         <v>46001.68668981481</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5540,7 +5540,7 @@
         <v>46013.56092592593</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5630,7 +5630,7 @@
         <v>44665</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5720,7 +5720,7 @@
         <v>45440</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5810,7 +5810,7 @@
         <v>44484</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5900,7 +5900,7 @@
         <v>45513</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5989,7 +5989,7 @@
         <v>46072.52524305556</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6074,7 +6074,7 @@
         <v>44279</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6131,7 +6131,7 @@
         <v>44679</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6188,7 +6188,7 @@
         <v>44524</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6245,7 +6245,7 @@
         <v>44300.93118055556</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6307,7 +6307,7 @@
         <v>44746</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6364,7 +6364,7 @@
         <v>44774</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6421,7 +6421,7 @@
         <v>44831.43211805556</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6478,7 +6478,7 @@
         <v>44818</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6535,7 +6535,7 @@
         <v>44375</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6592,7 +6592,7 @@
         <v>44370</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6649,7 +6649,7 @@
         <v>44844</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         <v>44865</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6763,7 +6763,7 @@
         <v>45260.96586805556</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6825,7 +6825,7 @@
         <v>44844.92738425926</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6882,7 +6882,7 @@
         <v>44397</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6939,7 +6939,7 @@
         <v>44831.42108796296</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6996,7 +6996,7 @@
         <v>44864.69234953704</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7053,7 +7053,7 @@
         <v>44461</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7110,7 +7110,7 @@
         <v>44461</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7167,7 +7167,7 @@
         <v>44462</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7224,7 +7224,7 @@
         <v>44504.48643518519</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7286,7 +7286,7 @@
         <v>44484.98724537037</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7348,7 +7348,7 @@
         <v>44608.67099537037</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7405,7 +7405,7 @@
         <v>44701.45046296297</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7467,7 +7467,7 @@
         <v>44551</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7524,7 +7524,7 @@
         <v>44397.55902777778</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7581,7 +7581,7 @@
         <v>44620</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7638,7 +7638,7 @@
         <v>44770</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7700,7 +7700,7 @@
         <v>44608</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7757,7 +7757,7 @@
         <v>44580</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7819,7 +7819,7 @@
         <v>44834.58712962963</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7881,7 +7881,7 @@
         <v>44490.66326388889</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7943,7 +7943,7 @@
         <v>44680</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8000,7 +8000,7 @@
         <v>44802.65265046297</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8062,7 +8062,7 @@
         <v>44608.6668287037</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8119,7 +8119,7 @@
         <v>44740.47321759259</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8181,7 +8181,7 @@
         <v>44743.94396990741</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8243,7 +8243,7 @@
         <v>44602</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8305,7 +8305,7 @@
         <v>44826</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8362,7 +8362,7 @@
         <v>44599</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8419,7 +8419,7 @@
         <v>44862.44689814815</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8476,7 +8476,7 @@
         <v>44620</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8533,7 +8533,7 @@
         <v>44620</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8590,7 +8590,7 @@
         <v>44524</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8647,7 +8647,7 @@
         <v>44524</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8704,7 +8704,7 @@
         <v>44774</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8761,7 +8761,7 @@
         <v>44490</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8818,7 +8818,7 @@
         <v>44484.98746527778</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8880,7 +8880,7 @@
         <v>45469</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8937,7 +8937,7 @@
         <v>45649</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8994,7 +8994,7 @@
         <v>45601.41592592592</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9056,7 +9056,7 @@
         <v>45611</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9113,7 +9113,7 @@
         <v>45471.9431712963</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9175,7 +9175,7 @@
         <v>45537</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9232,7 +9232,7 @@
         <v>44914.97001157407</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9294,7 +9294,7 @@
         <v>45736</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9351,7 +9351,7 @@
         <v>44918</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9413,7 +9413,7 @@
         <v>45117.95247685185</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9475,7 +9475,7 @@
         <v>45195</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9532,7 +9532,7 @@
         <v>45451</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9594,7 +9594,7 @@
         <v>45536</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9651,7 +9651,7 @@
         <v>45602.3874537037</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9708,7 +9708,7 @@
         <v>45630</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9770,7 +9770,7 @@
         <v>44827</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9827,7 +9827,7 @@
         <v>45247.47538194444</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9884,7 +9884,7 @@
         <v>45345</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9941,7 +9941,7 @@
         <v>45587.59827546297</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9998,7 +9998,7 @@
         <v>45481</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10060,7 +10060,7 @@
         <v>45615</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10117,7 +10117,7 @@
         <v>45189</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10174,7 +10174,7 @@
         <v>45531.69734953704</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10231,7 +10231,7 @@
         <v>45145.92299768519</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10288,7 +10288,7 @@
         <v>45145.92325231482</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10345,7 +10345,7 @@
         <v>45257</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10402,7 +10402,7 @@
         <v>45744.57880787037</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10459,7 +10459,7 @@
         <v>45188.61318287037</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10521,7 +10521,7 @@
         <v>45446.6784837963</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10578,7 +10578,7 @@
         <v>45399</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10635,7 +10635,7 @@
         <v>45511</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10692,7 +10692,7 @@
         <v>45418</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10754,7 +10754,7 @@
         <v>45693.55229166667</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10811,7 +10811,7 @@
         <v>45128.62215277777</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10873,7 +10873,7 @@
         <v>44919</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10930,7 +10930,7 @@
         <v>45649.57627314814</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10987,7 +10987,7 @@
         <v>45568</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11044,7 +11044,7 @@
         <v>45645.66908564815</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11101,7 +11101,7 @@
         <v>44475.63670138889</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11163,7 +11163,7 @@
         <v>44795</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11220,7 +11220,7 @@
         <v>45887.49842592593</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11277,7 +11277,7 @@
         <v>45187</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11339,7 +11339,7 @@
         <v>44536</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11396,7 +11396,7 @@
         <v>45835.50796296296</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11453,7 +11453,7 @@
         <v>45889.37619212963</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11510,7 +11510,7 @@
         <v>45888.59417824074</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11572,7 +11572,7 @@
         <v>45889.36288194444</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11629,7 +11629,7 @@
         <v>45889.37246527777</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11686,7 +11686,7 @@
         <v>45825.56524305556</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11743,7 +11743,7 @@
         <v>45345.34260416667</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11800,7 +11800,7 @@
         <v>45889.36472222222</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11857,7 +11857,7 @@
         <v>45889.36733796296</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11914,7 +11914,7 @@
         <v>45889.65439814814</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11976,7 +11976,7 @@
         <v>45891.63541666666</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12038,7 +12038,7 @@
         <v>45890.37449074074</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12100,7 +12100,7 @@
         <v>44949</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12157,7 +12157,7 @@
         <v>45251</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12214,7 +12214,7 @@
         <v>45750.46479166667</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12276,7 +12276,7 @@
         <v>45479</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12338,7 +12338,7 @@
         <v>45894.65684027778</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12395,7 +12395,7 @@
         <v>45894.66121527777</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12457,7 +12457,7 @@
         <v>45895.34538194445</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12514,7 +12514,7 @@
         <v>45253.8090162037</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12571,7 +12571,7 @@
         <v>45895.34515046296</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12628,7 +12628,7 @@
         <v>45895.40678240741</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12690,7 +12690,7 @@
         <v>45831.51869212963</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12752,7 +12752,7 @@
         <v>45831.52111111111</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12814,7 +12814,7 @@
         <v>44414.52152777778</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12871,7 +12871,7 @@
         <v>45897</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12933,7 +12933,7 @@
         <v>45897.34454861111</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12995,7 +12995,7 @@
         <v>45659.39510416667</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13052,7 +13052,7 @@
         <v>45897</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13114,7 +13114,7 @@
         <v>45897</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13176,7 +13176,7 @@
         <v>45832.61597222222</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13233,7 +13233,7 @@
         <v>45897</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13295,7 +13295,7 @@
         <v>45897</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13357,7 +13357,7 @@
         <v>45587.8405324074</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13434,7 +13434,7 @@
         <v>45587.84275462963</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13491,7 +13491,7 @@
         <v>45587.848125</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13548,7 +13548,7 @@
         <v>45057.9408912037</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13610,7 +13610,7 @@
         <v>45898.60793981481</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13672,7 +13672,7 @@
         <v>45846.45019675926</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13729,7 +13729,7 @@
         <v>45602.44862268519</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13786,7 +13786,7 @@
         <v>44950.95469907407</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13843,7 +13843,7 @@
         <v>45834.33939814815</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13905,7 +13905,7 @@
         <v>45730.39814814815</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13962,7 +13962,7 @@
         <v>45609.61846064815</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14019,7 +14019,7 @@
         <v>45602.38761574074</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14076,7 +14076,7 @@
         <v>45602.38763888889</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14133,7 +14133,7 @@
         <v>44776</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14195,7 +14195,7 @@
         <v>45835.8281712963</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14257,7 +14257,7 @@
         <v>45824.45652777778</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14314,7 +14314,7 @@
         <v>45198.40074074074</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14376,7 +14376,7 @@
         <v>45756.4102199074</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14433,7 +14433,7 @@
         <v>45908.49655092593</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14490,7 +14490,7 @@
         <v>45838.59995370371</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14547,7 +14547,7 @@
         <v>45835.87006944444</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14609,7 +14609,7 @@
         <v>45631.34457175926</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14671,7 +14671,7 @@
         <v>45845</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14728,7 +14728,7 @@
         <v>45646</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14785,7 +14785,7 @@
         <v>45630.66277777778</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14847,7 +14847,7 @@
         <v>45362</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14904,7 +14904,7 @@
         <v>45679.39748842592</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14961,7 +14961,7 @@
         <v>45915.574375</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15023,7 +15023,7 @@
         <v>45915.58934027778</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15085,7 +15085,7 @@
         <v>45912.39425925926</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15147,7 +15147,7 @@
         <v>45846.4693287037</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15204,7 +15204,7 @@
         <v>45645.58835648148</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15261,7 +15261,7 @@
         <v>45723.36034722222</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15318,7 +15318,7 @@
         <v>45846.45319444445</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15375,7 +15375,7 @@
         <v>45436</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15437,7 +15437,7 @@
         <v>45436.94708333333</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15499,7 +15499,7 @@
         <v>45916.65663194445</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15561,7 +15561,7 @@
         <v>44370.65484953704</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15618,7 +15618,7 @@
         <v>45600.47861111111</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15680,7 +15680,7 @@
         <v>45919.49429398148</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15737,7 +15737,7 @@
         <v>45919.48994212963</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15799,7 +15799,7 @@
         <v>45920.82388888889</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15856,7 +15856,7 @@
         <v>45467</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15918,7 +15918,7 @@
         <v>45924.67805555555</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15980,7 +15980,7 @@
         <v>45867.61530092593</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16042,7 +16042,7 @@
         <v>45866.55498842592</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16099,7 +16099,7 @@
         <v>45582.47464120371</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16156,7 +16156,7 @@
         <v>45582</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16213,7 +16213,7 @@
         <v>45800</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16275,7 +16275,7 @@
         <v>45929.34304398148</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16337,7 +16337,7 @@
         <v>45929.36494212963</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16394,7 +16394,7 @@
         <v>45873.71912037037</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16456,7 +16456,7 @@
         <v>45104.65298611111</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16518,7 +16518,7 @@
         <v>45565.58391203704</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16575,7 +16575,7 @@
         <v>45929.47361111111</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16637,7 +16637,7 @@
         <v>45929.72506944444</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16694,7 +16694,7 @@
         <v>45678.61952546296</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16756,7 +16756,7 @@
         <v>45929.36496527777</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16813,7 +16813,7 @@
         <v>45929.71940972222</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16870,7 +16870,7 @@
         <v>45926.59788194444</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16932,7 +16932,7 @@
         <v>45190.50340277778</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16989,7 +16989,7 @@
         <v>45198.47061342592</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17051,7 +17051,7 @@
         <v>45931.37207175926</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17108,7 +17108,7 @@
         <v>45874.69827546296</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17170,7 +17170,7 @@
         <v>45069.37450231481</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17232,7 +17232,7 @@
         <v>45875.67760416667</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17294,7 +17294,7 @@
         <v>45758.63064814815</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17351,7 +17351,7 @@
         <v>45874.67782407408</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17413,7 +17413,7 @@
         <v>45874.48631944445</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17470,7 +17470,7 @@
         <v>45875.34476851852</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17532,7 +17532,7 @@
         <v>45351</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17589,7 +17589,7 @@
         <v>45393</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17646,7 +17646,7 @@
         <v>45394</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17703,7 +17703,7 @@
         <v>45394</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17760,7 +17760,7 @@
         <v>45880</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17817,7 +17817,7 @@
         <v>45881.40806712963</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17874,7 +17874,7 @@
         <v>45880</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17931,7 +17931,7 @@
         <v>45880</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17988,7 +17988,7 @@
         <v>45881.41208333334</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18045,7 +18045,7 @@
         <v>45880.67780092593</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18107,7 +18107,7 @@
         <v>45881.51483796296</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18164,7 +18164,7 @@
         <v>45345</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18221,7 +18221,7 @@
         <v>45880</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18278,7 +18278,7 @@
         <v>45880</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18335,7 +18335,7 @@
         <v>45882.28542824074</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18392,7 +18392,7 @@
         <v>45882.63927083334</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18449,7 +18449,7 @@
         <v>45882.55125</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18506,7 +18506,7 @@
         <v>45883.65666666667</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18568,7 +18568,7 @@
         <v>45537</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18625,7 +18625,7 @@
         <v>45883.63590277778</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18687,7 +18687,7 @@
         <v>45938.48</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18749,7 +18749,7 @@
         <v>45882.58627314815</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18806,7 +18806,7 @@
         <v>45938.63704861111</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18863,7 +18863,7 @@
         <v>45727.61769675926</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18920,7 +18920,7 @@
         <v>45943.38288194445</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18977,7 +18977,7 @@
         <v>45943.40912037037</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19034,7 +19034,7 @@
         <v>45943.40491898148</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19091,7 +19091,7 @@
         <v>45407.51649305555</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19153,7 +19153,7 @@
         <v>44919</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19210,7 +19210,7 @@
         <v>45614.34428240741</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19272,7 +19272,7 @@
         <v>45945.40693287037</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19329,7 +19329,7 @@
         <v>44701</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19386,7 +19386,7 @@
         <v>45946.51113425926</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19443,7 +19443,7 @@
         <v>45946.61516203704</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19500,7 +19500,7 @@
         <v>44991</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19557,7 +19557,7 @@
         <v>45512</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19614,7 +19614,7 @@
         <v>45946.490625</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19671,7 +19671,7 @@
         <v>45946.51122685185</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19728,7 +19728,7 @@
         <v>45102</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19790,7 +19790,7 @@
         <v>45953.4543287037</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19847,7 +19847,7 @@
         <v>45467.35814814815</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19909,7 +19909,7 @@
         <v>45348</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19966,7 +19966,7 @@
         <v>45181.38291666667</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20028,7 +20028,7 @@
         <v>45019</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20085,7 +20085,7 @@
         <v>45953.41458333333</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20142,7 +20142,7 @@
         <v>45099</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20199,7 +20199,7 @@
         <v>45953.79050925926</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20256,7 +20256,7 @@
         <v>44998</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20313,7 +20313,7 @@
         <v>45680.56597222222</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20370,7 +20370,7 @@
         <v>44722</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20427,7 +20427,7 @@
         <v>45450.94471064815</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20489,7 +20489,7 @@
         <v>45451</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20551,7 +20551,7 @@
         <v>44784.94172453704</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20613,7 +20613,7 @@
         <v>45721.445625</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20670,7 +20670,7 @@
         <v>45964.4562037037</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20727,7 +20727,7 @@
         <v>45537</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20784,7 +20784,7 @@
         <v>45609.64046296296</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20841,7 +20841,7 @@
         <v>44785</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20903,7 +20903,7 @@
         <v>44901.92403935185</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20960,7 +20960,7 @@
         <v>45175.63826388889</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21022,7 +21022,7 @@
         <v>45727.60585648148</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21079,7 +21079,7 @@
         <v>45973.38936342593</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21141,7 +21141,7 @@
         <v>45627.71203703704</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21198,7 +21198,7 @@
         <v>45737.55802083333</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21255,7 +21255,7 @@
         <v>45975.37643518519</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21312,7 +21312,7 @@
         <v>45979.60740740741</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21374,7 +21374,7 @@
         <v>45232</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21431,7 +21431,7 @@
         <v>45979.65953703703</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21493,7 +21493,7 @@
         <v>45978.30922453704</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21550,7 +21550,7 @@
         <v>45978.45061342593</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21607,7 +21607,7 @@
         <v>45980.3821875</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21664,7 +21664,7 @@
         <v>44756</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21721,7 +21721,7 @@
         <v>45981</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21778,7 +21778,7 @@
         <v>45568.44950231481</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21835,7 +21835,7 @@
         <v>45548.56578703703</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21892,7 +21892,7 @@
         <v>45982.44800925926</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21949,7 +21949,7 @@
         <v>45982.64979166666</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22006,7 +22006,7 @@
         <v>45537</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22063,7 +22063,7 @@
         <v>45986.62428240741</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22120,7 +22120,7 @@
         <v>45183</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22177,7 +22177,7 @@
         <v>44911.94085648148</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22239,7 +22239,7 @@
         <v>45986.61917824074</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22296,7 +22296,7 @@
         <v>45986.37128472222</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22353,7 +22353,7 @@
         <v>45989.45841435185</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22415,7 +22415,7 @@
         <v>45988.70458333333</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22472,7 +22472,7 @@
         <v>44966.67196759259</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22534,7 +22534,7 @@
         <v>45989.3446412037</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22596,7 +22596,7 @@
         <v>45988.42684027777</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22658,7 +22658,7 @@
         <v>45307.92592592593</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22715,7 +22715,7 @@
         <v>45659</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22772,7 +22772,7 @@
         <v>44899.94689814815</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22834,7 +22834,7 @@
         <v>45622.42745370371</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22896,7 +22896,7 @@
         <v>45705</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22953,7 +22953,7 @@
         <v>45988</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23010,7 +23010,7 @@
         <v>45755.60756944444</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23067,7 +23067,7 @@
         <v>45993.65642361111</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23124,7 +23124,7 @@
         <v>45056</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23181,7 +23181,7 @@
         <v>45623</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23238,7 +23238,7 @@
         <v>46034</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23295,7 +23295,7 @@
         <v>45259</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23352,7 +23352,7 @@
         <v>45555</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23414,7 +23414,7 @@
         <v>45028.94060185185</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23476,7 +23476,7 @@
         <v>45616</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23533,7 +23533,7 @@
         <v>45398</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23595,7 +23595,7 @@
         <v>46000</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23652,7 +23652,7 @@
         <v>45246.96910879629</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23714,7 +23714,7 @@
         <v>45224.75395833333</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23771,7 +23771,7 @@
         <v>46001.43599537037</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23828,7 +23828,7 @@
         <v>46001.4212962963</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23885,7 +23885,7 @@
         <v>46001.45038194444</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23942,7 +23942,7 @@
         <v>45280.94380787037</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24004,7 +24004,7 @@
         <v>45450</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24066,7 +24066,7 @@
         <v>45610.38056712963</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24128,7 +24128,7 @@
         <v>46000.54172453703</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24185,7 +24185,7 @@
         <v>45141</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24247,7 +24247,7 @@
         <v>46001.68611111111</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24309,7 +24309,7 @@
         <v>45190.45606481482</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24371,7 +24371,7 @@
         <v>45615.7033912037</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24428,7 +24428,7 @@
         <v>45568</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24485,7 +24485,7 @@
         <v>46002.60291666666</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24542,7 +24542,7 @@
         <v>46006.51091435185</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24604,7 +24604,7 @@
         <v>45190.60920138889</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24666,7 +24666,7 @@
         <v>46007.50287037037</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24723,7 +24723,7 @@
         <v>45183</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24785,7 +24785,7 @@
         <v>45737.54446759259</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24842,7 +24842,7 @@
         <v>46007.88758101852</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24899,7 +24899,7 @@
         <v>46008.49011574074</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24956,7 +24956,7 @@
         <v>46008.49018518518</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25013,7 +25013,7 @@
         <v>45537</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25070,7 +25070,7 @@
         <v>45958</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25127,7 +25127,7 @@
         <v>45280.94303240741</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25189,7 +25189,7 @@
         <v>46008.51109953703</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25246,7 +25246,7 @@
         <v>45259</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25303,7 +25303,7 @@
         <v>44792.35222222222</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25360,7 +25360,7 @@
         <v>46010.45041666667</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25417,7 +25417,7 @@
         <v>46055.38575231482</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25474,7 +25474,7 @@
         <v>46010</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25531,7 +25531,7 @@
         <v>46010.39408564815</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25588,7 +25588,7 @@
         <v>46010</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25645,7 +25645,7 @@
         <v>46010.39568287037</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25702,7 +25702,7 @@
         <v>46013.61215277778</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25764,7 +25764,7 @@
         <v>45476</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25826,7 +25826,7 @@
         <v>45260.34408564815</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25883,7 +25883,7 @@
         <v>46055</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25940,7 +25940,7 @@
         <v>46057.58739583333</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25997,7 +25997,7 @@
         <v>45169.93868055556</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26059,7 +26059,7 @@
         <v>46057.2996412037</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26116,7 +26116,7 @@
         <v>44673</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26173,7 +26173,7 @@
         <v>46057.29667824074</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26230,7 +26230,7 @@
         <v>46014.46296296296</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26287,7 +26287,7 @@
         <v>46041</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26349,7 +26349,7 @@
         <v>45623</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26406,7 +26406,7 @@
         <v>46057.58056712963</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26463,7 +26463,7 @@
         <v>46056.41567129629</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26520,7 +26520,7 @@
         <v>46056.42645833334</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26577,7 +26577,7 @@
         <v>45602.38762731481</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26634,7 +26634,7 @@
         <v>46056.48768518519</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26691,7 +26691,7 @@
         <v>45113</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26753,7 +26753,7 @@
         <v>45630</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26815,7 +26815,7 @@
         <v>45132</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26877,7 +26877,7 @@
         <v>45614</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26934,7 +26934,7 @@
         <v>46065.59229166667</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26991,7 +26991,7 @@
         <v>45429</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -27048,7 +27048,7 @@
         <v>45756.47723379629</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -27105,7 +27105,7 @@
         <v>45351</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27162,7 +27162,7 @@
         <v>45726.61538194444</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27224,7 +27224,7 @@
         <v>45394</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27281,7 +27281,7 @@
         <v>44424</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27343,7 +27343,7 @@
         <v>46023.84774305556</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27400,7 +27400,7 @@
         <v>45513</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27457,7 +27457,7 @@
         <v>46066.59456018519</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27514,7 +27514,7 @@
         <v>45506</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27576,7 +27576,7 @@
         <v>45247.46681712963</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27633,7 +27633,7 @@
         <v>45293</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27690,7 +27690,7 @@
         <v>46028</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27747,7 +27747,7 @@
         <v>45236</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27804,7 +27804,7 @@
         <v>46044.42516203703</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27861,7 +27861,7 @@
         <v>46070.53387731482</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27918,7 +27918,7 @@
         <v>44806</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27975,7 +27975,7 @@
         <v>45447</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -28037,7 +28037,7 @@
         <v>46030.58759259259</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -28094,7 +28094,7 @@
         <v>45141.32886574074</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28156,7 +28156,7 @@
         <v>45141.47096064815</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28218,7 +28218,7 @@
         <v>45469</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28280,7 +28280,7 @@
         <v>45614</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28337,7 +28337,7 @@
         <v>44788.6674537037</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28394,7 +28394,7 @@
         <v>45348</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28451,7 +28451,7 @@
         <v>45348</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28508,7 +28508,7 @@
         <v>45009.08837962963</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28570,7 +28570,7 @@
         <v>44887</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28632,7 +28632,7 @@
         <v>45307</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28689,7 +28689,7 @@
         <v>45587.83815972223</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28746,7 +28746,7 @@
         <v>44985</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28803,7 +28803,7 @@
         <v>45450.94480324074</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28865,7 +28865,7 @@
         <v>45342</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28922,7 +28922,7 @@
         <v>45351</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28979,7 +28979,7 @@
         <v>45433.94342592593</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -29041,7 +29041,7 @@
         <v>45649</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -29098,7 +29098,7 @@
         <v>45649.3635300926</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29155,7 +29155,7 @@
         <v>45602.4377662037</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29212,7 +29212,7 @@
         <v>44494</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29269,7 +29269,7 @@
         <v>44608</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29326,7 +29326,7 @@
         <v>44608.66927083334</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29383,7 +29383,7 @@
         <v>45148.47032407407</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29445,7 +29445,7 @@
         <v>45148</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29507,7 +29507,7 @@
         <v>45547</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29569,7 +29569,7 @@
         <v>45190</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29631,7 +29631,7 @@
         <v>45602</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29693,7 +29693,7 @@
         <v>45406</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29750,7 +29750,7 @@
         <v>44977</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29812,7 +29812,7 @@
         <v>44424.94164351852</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29874,7 +29874,7 @@
         <v>45090.70563657407</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29931,7 +29931,7 @@
         <v>45693.45158564814</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29988,7 +29988,7 @@
         <v>45642.70561342593</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -30050,7 +30050,7 @@
         <v>45189.44546296296</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -30112,7 +30112,7 @@
         <v>44978.92381944445</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -30169,7 +30169,7 @@
         <v>44911</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30231,7 +30231,7 @@
         <v>45224.88442129629</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30288,7 +30288,7 @@
         <v>45512</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30345,7 +30345,7 @@
         <v>45539</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30402,7 +30402,7 @@
         <v>45659.44478009259</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30459,7 +30459,7 @@
         <v>44924</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30521,7 +30521,7 @@
         <v>45609.64043981482</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30578,7 +30578,7 @@
         <v>44557</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30635,7 +30635,7 @@
         <v>45357</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30692,7 +30692,7 @@
         <v>44916.9260300926</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30749,7 +30749,7 @@
         <v>45429.92396990741</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30806,7 +30806,7 @@
         <v>45590.48991898148</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30863,7 +30863,7 @@
         <v>45565.34449074074</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30920,7 +30920,7 @@
         <v>45749.60484953703</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30977,7 +30977,7 @@
         <v>45076</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -31034,7 +31034,7 @@
         <v>45072.47021990741</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -31091,7 +31091,7 @@
         <v>45139</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31148,7 +31148,7 @@
         <v>44866</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31205,7 +31205,7 @@
         <v>45609.67881944445</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31262,7 +31262,7 @@
         <v>45436.94701388889</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31324,7 +31324,7 @@
         <v>45168</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31381,7 +31381,7 @@
         <v>44441</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31438,7 +31438,7 @@
         <v>45600.55559027778</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31500,7 +31500,7 @@
         <v>45712.39594907407</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31562,7 +31562,7 @@
         <v>45645.60092592592</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31619,7 +31619,7 @@
         <v>45749.44096064815</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31676,7 +31676,7 @@
         <v>45638.63533564815</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31733,7 +31733,7 @@
         <v>45784.42898148148</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31790,7 +31790,7 @@
         <v>45785.46921296296</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31847,7 +31847,7 @@
         <v>45785.46922453704</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31904,7 +31904,7 @@
         <v>45785.84664351852</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31966,7 +31966,7 @@
         <v>45786.34450231482</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -32028,7 +32028,7 @@
         <v>45785.84648148148</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -32090,7 +32090,7 @@
         <v>45790</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -32147,7 +32147,7 @@
         <v>45484.71327546296</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32204,7 +32204,7 @@
         <v>45567</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32261,7 +32261,7 @@
         <v>45800.65744212963</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32318,7 +32318,7 @@
         <v>45251.33342592593</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32375,7 +32375,7 @@
         <v>45800.34435185185</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32437,7 +32437,7 @@
         <v>45810.8708912037</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32494,7 +32494,7 @@
         <v>45813.53979166667</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32551,7 +32551,7 @@
         <v>45813.54122685185</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32608,7 +32608,7 @@
         <v>45813.52341435185</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32665,7 +32665,7 @@
         <v>45812.47314814815</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32722,7 +32722,7 @@
         <v>45817.61836805556</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32784,7 +32784,7 @@
         <v>45817.63113425926</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>

--- a/Översikt BJURHOLM.xlsx
+++ b/Översikt BJURHOLM.xlsx
@@ -575,7 +575,7 @@
         <v>45831</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -713,7 +713,7 @@
         <v>44312</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -836,7 +836,7 @@
         <v>44336</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -961,7 +961,7 @@
         <v>45884.42804398148</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>45467</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1207,7 +1207,7 @@
         <v>45519</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1325,7 +1325,7 @@
         <v>45503</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1443,7 +1443,7 @@
         <v>45519</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1561,7 +1561,7 @@
         <v>45280</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1676,7 +1676,7 @@
         <v>44691</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1786,7 +1786,7 @@
         <v>45586</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1896,7 +1896,7 @@
         <v>44896</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -2009,7 +2009,7 @@
         <v>45827</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2122,7 +2122,7 @@
         <v>45742</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         <v>45607</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2326,7 +2326,7 @@
         <v>45057</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2426,7 +2426,7 @@
         <v>45456.62347222222</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2525,7 +2525,7 @@
         <v>44648</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2627,7 +2627,7 @@
         <v>45447</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2730,7 +2730,7 @@
         <v>44277</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2826,7 +2826,7 @@
         <v>45009</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2920,7 +2920,7 @@
         <v>45761.4652199074</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -3010,7 +3010,7 @@
         <v>45884.47008101852</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3109,7 +3109,7 @@
         <v>44694</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3208,7 +3208,7 @@
         <v>44881</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3297,7 +3297,7 @@
         <v>45043</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3386,7 +3386,7 @@
         <v>46057.38619212963</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         <v>44588</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3567,7 +3567,7 @@
         <v>45973.63479166666</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3655,7 +3655,7 @@
         <v>46000.4275462963</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3752,7 +3752,7 @@
         <v>45635</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3844,7 +3844,7 @@
         <v>45246</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3936,7 +3936,7 @@
         <v>45981.56534722223</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4027,7 +4027,7 @@
         <v>45645</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4113,7 +4113,7 @@
         <v>45471.94290509259</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4204,7 +4204,7 @@
         <v>45113</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4299,7 +4299,7 @@
         <v>46001.68449074074</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4390,7 +4390,7 @@
         <v>46010.46971064815</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4481,7 +4481,7 @@
         <v>44277</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4571,7 +4571,7 @@
         <v>45440</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4661,7 +4661,7 @@
         <v>44897.43052083333</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4751,7 +4751,7 @@
         <v>45747.68127314815</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4840,7 +4840,7 @@
         <v>45513</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4929,7 +4929,7 @@
         <v>45404</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -5014,7 +5014,7 @@
         <v>45915.55253472222</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5104,7 +5104,7 @@
         <v>45929.5741087963</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
         <v>45656</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5274,7 +5274,7 @@
         <v>44484</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5364,7 +5364,7 @@
         <v>45975.34778935185</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5454,7 +5454,7 @@
         <v>45981.30391203704</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5544,7 +5544,7 @@
         <v>46001.68668981481</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5634,7 +5634,7 @@
         <v>45659</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5719,7 +5719,7 @@
         <v>46013.56092592593</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5809,7 +5809,7 @@
         <v>45252</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5899,7 +5899,7 @@
         <v>46072.52524305556</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5984,7 +5984,7 @@
         <v>44665</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6074,7 +6074,7 @@
         <v>44279</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6131,7 +6131,7 @@
         <v>44679</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6188,7 +6188,7 @@
         <v>44524</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6245,7 +6245,7 @@
         <v>44300.93118055556</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6307,7 +6307,7 @@
         <v>44746</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6364,7 +6364,7 @@
         <v>44774</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6421,7 +6421,7 @@
         <v>44831.43211805556</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6478,7 +6478,7 @@
         <v>44818</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6535,7 +6535,7 @@
         <v>44370</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6592,7 +6592,7 @@
         <v>44375</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6649,7 +6649,7 @@
         <v>44844</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         <v>44865</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6763,7 +6763,7 @@
         <v>45260.96586805556</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6825,7 +6825,7 @@
         <v>44844.92738425926</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6882,7 +6882,7 @@
         <v>44397</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6939,7 +6939,7 @@
         <v>44831.42108796296</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6996,7 +6996,7 @@
         <v>44864.69234953704</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7053,7 +7053,7 @@
         <v>44461</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7110,7 +7110,7 @@
         <v>44461</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7167,7 +7167,7 @@
         <v>44462</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7224,7 +7224,7 @@
         <v>44504.48643518519</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7286,7 +7286,7 @@
         <v>44484.98724537037</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7348,7 +7348,7 @@
         <v>44608.67099537037</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7405,7 +7405,7 @@
         <v>44701.45046296297</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7467,7 +7467,7 @@
         <v>44397.55902777778</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7524,7 +7524,7 @@
         <v>44551</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7581,7 +7581,7 @@
         <v>44620</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7638,7 +7638,7 @@
         <v>44770</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7700,7 +7700,7 @@
         <v>44608</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7757,7 +7757,7 @@
         <v>44580</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7819,7 +7819,7 @@
         <v>44834.58712962963</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7881,7 +7881,7 @@
         <v>44490.66326388889</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7943,7 +7943,7 @@
         <v>44680</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8000,7 +8000,7 @@
         <v>44802.65265046297</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8062,7 +8062,7 @@
         <v>44608.6668287037</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8119,7 +8119,7 @@
         <v>44740.47321759259</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8181,7 +8181,7 @@
         <v>44743.94396990741</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8243,7 +8243,7 @@
         <v>44602</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8305,7 +8305,7 @@
         <v>44826</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8362,7 +8362,7 @@
         <v>44599</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8419,7 +8419,7 @@
         <v>44862.44689814815</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8476,7 +8476,7 @@
         <v>44620</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8533,7 +8533,7 @@
         <v>44620</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8590,7 +8590,7 @@
         <v>44524</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8647,7 +8647,7 @@
         <v>44524</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8704,7 +8704,7 @@
         <v>44774</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8761,7 +8761,7 @@
         <v>44490</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8818,7 +8818,7 @@
         <v>44484.98746527778</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8880,7 +8880,7 @@
         <v>45247.46681712963</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8937,7 +8937,7 @@
         <v>44776</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8999,7 +8999,7 @@
         <v>45678.61952546296</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9061,7 +9061,7 @@
         <v>45069.37450231481</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9123,7 +9123,7 @@
         <v>44806</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9180,7 +9180,7 @@
         <v>45342</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9237,7 +9237,7 @@
         <v>44414.52152777778</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9294,7 +9294,7 @@
         <v>45393</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9351,7 +9351,7 @@
         <v>45394</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9408,7 +9408,7 @@
         <v>45394</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9465,7 +9465,7 @@
         <v>45398</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9527,7 +9527,7 @@
         <v>45450.94480324074</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9589,7 +9589,7 @@
         <v>45407.51649305555</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9651,7 +9651,7 @@
         <v>45113</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9713,7 +9713,7 @@
         <v>44784.94172453704</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9775,7 +9775,7 @@
         <v>44441</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9832,7 +9832,7 @@
         <v>45190.45606481482</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9894,7 +9894,7 @@
         <v>45433.94342592593</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9956,7 +9956,7 @@
         <v>45394</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10013,7 +10013,7 @@
         <v>45512</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10070,7 +10070,7 @@
         <v>45481</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10132,7 +10132,7 @@
         <v>45467</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10194,7 +10194,7 @@
         <v>45446.6784837963</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10251,7 +10251,7 @@
         <v>44949</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10308,7 +10308,7 @@
         <v>44866</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10365,7 +10365,7 @@
         <v>45512</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10422,7 +10422,7 @@
         <v>45141</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10484,7 +10484,7 @@
         <v>45539</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10541,7 +10541,7 @@
         <v>45447</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         <v>45506</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10665,7 +10665,7 @@
         <v>45555</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10727,7 +10727,7 @@
         <v>44494</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10784,7 +10784,7 @@
         <v>45548.56578703703</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10841,7 +10841,7 @@
         <v>45476</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10903,7 +10903,7 @@
         <v>45614.34428240741</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10965,7 +10965,7 @@
         <v>45436</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11027,7 +11027,7 @@
         <v>45436.94708333333</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>45537</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11146,7 +11146,7 @@
         <v>44911.94085648148</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11208,7 +11208,7 @@
         <v>45429</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11265,7 +11265,7 @@
         <v>45646</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11322,7 +11322,7 @@
         <v>45883.63590277778</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11384,7 +11384,7 @@
         <v>45883.65666666667</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11446,7 +11446,7 @@
         <v>45348</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11503,7 +11503,7 @@
         <v>45888.59417824074</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11565,7 +11565,7 @@
         <v>44924</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11627,7 +11627,7 @@
         <v>45887.49842592593</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11684,7 +11684,7 @@
         <v>45810.8708912037</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11741,7 +11741,7 @@
         <v>45835.50796296296</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11798,7 +11798,7 @@
         <v>45568</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11855,7 +11855,7 @@
         <v>45812.47314814815</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11912,7 +11912,7 @@
         <v>45889.65439814814</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11974,7 +11974,7 @@
         <v>45813.52341435185</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12031,7 +12031,7 @@
         <v>45813.53979166667</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12088,7 +12088,7 @@
         <v>45104.65298611111</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12150,7 +12150,7 @@
         <v>45813.54122685185</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12207,7 +12207,7 @@
         <v>45889.36472222222</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12264,7 +12264,7 @@
         <v>45889.37619212963</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12321,7 +12321,7 @@
         <v>45889.36288194444</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12378,7 +12378,7 @@
         <v>45890.37449074074</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12440,7 +12440,7 @@
         <v>45889.37246527777</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12497,7 +12497,7 @@
         <v>45195</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12554,7 +12554,7 @@
         <v>45889.36733796296</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12611,7 +12611,7 @@
         <v>45891.63541666666</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12673,7 +12673,7 @@
         <v>45894.65684027778</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12730,7 +12730,7 @@
         <v>45894.66121527777</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12792,7 +12792,7 @@
         <v>45817.61836805556</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12854,7 +12854,7 @@
         <v>45817.63113425926</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12916,7 +12916,7 @@
         <v>45399</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12973,7 +12973,7 @@
         <v>45630.66277777778</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13035,7 +13035,7 @@
         <v>44914.97001157407</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13097,7 +13097,7 @@
         <v>45895.34515046296</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13154,7 +13154,7 @@
         <v>45895.34538194445</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13211,7 +13211,7 @@
         <v>45895.40678240741</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13273,7 +13273,7 @@
         <v>45898.60793981481</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13335,7 +13335,7 @@
         <v>45897</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13397,7 +13397,7 @@
         <v>45897</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13459,7 +13459,7 @@
         <v>45825.56524305556</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13516,7 +13516,7 @@
         <v>45897</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13578,7 +13578,7 @@
         <v>45897</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13640,7 +13640,7 @@
         <v>45897</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13702,7 +13702,7 @@
         <v>45744.57880787037</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13759,7 +13759,7 @@
         <v>45587.8405324074</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13836,7 +13836,7 @@
         <v>45587.84275462963</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13893,7 +13893,7 @@
         <v>45587.848125</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13950,7 +13950,7 @@
         <v>45897.34454861111</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14012,7 +14012,7 @@
         <v>45846.45019675926</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14069,7 +14069,7 @@
         <v>45568</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14126,7 +14126,7 @@
         <v>44756</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14183,7 +14183,7 @@
         <v>45723.36034722222</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14240,7 +14240,7 @@
         <v>45831.51869212963</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14302,7 +14302,7 @@
         <v>45831.52111111111</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14364,7 +14364,7 @@
         <v>45832.61597222222</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14421,7 +14421,7 @@
         <v>45236</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14478,7 +14478,7 @@
         <v>45908.49655092593</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14535,7 +14535,7 @@
         <v>45834.33939814815</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14597,7 +14597,7 @@
         <v>45737.54446759259</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14654,7 +14654,7 @@
         <v>45187</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14716,7 +14716,7 @@
         <v>45838.59995370371</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14773,7 +14773,7 @@
         <v>44673</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14830,7 +14830,7 @@
         <v>45756.4102199074</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14887,7 +14887,7 @@
         <v>45824.45652777778</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14944,7 +14944,7 @@
         <v>45835.8281712963</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15006,7 +15006,7 @@
         <v>45712.39594907407</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15068,7 +15068,7 @@
         <v>45835.87006944444</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15130,7 +15130,7 @@
         <v>45351</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15187,7 +15187,7 @@
         <v>44998</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15244,7 +15244,7 @@
         <v>45609.64043981482</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15301,7 +15301,7 @@
         <v>45623</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15358,7 +15358,7 @@
         <v>45623</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15415,7 +15415,7 @@
         <v>45614</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15472,7 +15472,7 @@
         <v>45846.4693287037</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15529,7 +15529,7 @@
         <v>45846.45319444445</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15586,7 +15586,7 @@
         <v>45845</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15643,7 +15643,7 @@
         <v>45057.9408912037</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15705,7 +15705,7 @@
         <v>45076</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15762,7 +15762,7 @@
         <v>45611</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15819,7 +15819,7 @@
         <v>45912.39425925926</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15881,7 +15881,7 @@
         <v>45582</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15938,7 +15938,7 @@
         <v>45679.39748842592</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15995,7 +15995,7 @@
         <v>45915.574375</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16057,7 +16057,7 @@
         <v>45915.58934027778</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16119,7 +16119,7 @@
         <v>45547</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16181,7 +16181,7 @@
         <v>45232</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16238,7 +16238,7 @@
         <v>45916.65663194445</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16300,7 +16300,7 @@
         <v>45600.55559027778</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16362,7 +16362,7 @@
         <v>45128.62215277777</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16424,7 +16424,7 @@
         <v>45800</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16486,7 +16486,7 @@
         <v>45866.55498842592</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16543,7 +16543,7 @@
         <v>45919.48994212963</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16605,7 +16605,7 @@
         <v>45919.49429398148</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16662,7 +16662,7 @@
         <v>45920.82388888889</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16719,7 +16719,7 @@
         <v>45630</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16781,7 +16781,7 @@
         <v>45867.61530092593</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16843,7 +16843,7 @@
         <v>45924.67805555555</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16905,7 +16905,7 @@
         <v>45565.58391203704</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16962,7 +16962,7 @@
         <v>45926.59788194444</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17024,7 +17024,7 @@
         <v>45874.48631944445</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17081,7 +17081,7 @@
         <v>45929.72506944444</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17138,7 +17138,7 @@
         <v>45929.36494212963</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17195,7 +17195,7 @@
         <v>45929.36496527777</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17252,7 +17252,7 @@
         <v>45929.71940972222</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17309,7 +17309,7 @@
         <v>45929.47361111111</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17371,7 +17371,7 @@
         <v>45758.63064814815</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17428,7 +17428,7 @@
         <v>45873.71912037037</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17490,7 +17490,7 @@
         <v>45726.61538194444</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17552,7 +17552,7 @@
         <v>45929.34304398148</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17614,7 +17614,7 @@
         <v>45072.47021990741</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17671,7 +17671,7 @@
         <v>45198.47061342592</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17733,7 +17733,7 @@
         <v>45931.37207175926</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17790,7 +17790,7 @@
         <v>45874.67782407408</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17852,7 +17852,7 @@
         <v>45874.69827546296</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17914,7 +17914,7 @@
         <v>45132</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17976,7 +17976,7 @@
         <v>45875.67760416667</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18038,7 +18038,7 @@
         <v>45875.34476851852</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18100,7 +18100,7 @@
         <v>45880</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18157,7 +18157,7 @@
         <v>45880</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18214,7 +18214,7 @@
         <v>45880</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18271,7 +18271,7 @@
         <v>45880</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18328,7 +18328,7 @@
         <v>45880.67780092593</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18390,7 +18390,7 @@
         <v>45880</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18447,7 +18447,7 @@
         <v>45882.58627314815</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18504,7 +18504,7 @@
         <v>45881.40806712963</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18561,7 +18561,7 @@
         <v>45881.41208333334</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18618,7 +18618,7 @@
         <v>45882.28542824074</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18675,7 +18675,7 @@
         <v>45749.44096064815</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18732,7 +18732,7 @@
         <v>45882.63927083334</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18789,7 +18789,7 @@
         <v>44916.9260300926</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18846,7 +18846,7 @@
         <v>45881.51483796296</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18903,7 +18903,7 @@
         <v>44827</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18960,7 +18960,7 @@
         <v>44788.6674537037</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19017,7 +19017,7 @@
         <v>45938.48</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19079,7 +19079,7 @@
         <v>45750.46479166667</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19141,7 +19141,7 @@
         <v>45938.63704861111</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19198,7 +19198,7 @@
         <v>45730.39814814815</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19255,7 +19255,7 @@
         <v>45568.44950231481</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19312,7 +19312,7 @@
         <v>45531.69734953704</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19369,7 +19369,7 @@
         <v>45257</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19426,7 +19426,7 @@
         <v>45537</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19483,7 +19483,7 @@
         <v>45882.55125</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19540,7 +19540,7 @@
         <v>45141.47096064815</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19602,7 +19602,7 @@
         <v>44966.67196759259</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19664,7 +19664,7 @@
         <v>45943.40912037037</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19721,7 +19721,7 @@
         <v>44536</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19778,7 +19778,7 @@
         <v>45943.38288194445</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19835,7 +19835,7 @@
         <v>45280.94380787037</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19897,7 +19897,7 @@
         <v>45943.40491898148</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19954,7 +19954,7 @@
         <v>45945.40693287037</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20011,7 +20011,7 @@
         <v>45946.490625</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20068,7 +20068,7 @@
         <v>45946.51113425926</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20125,7 +20125,7 @@
         <v>45946.51122685185</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20182,7 +20182,7 @@
         <v>45946.61516203704</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20239,7 +20239,7 @@
         <v>44475.63670138889</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20301,7 +20301,7 @@
         <v>44911</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20363,7 +20363,7 @@
         <v>45614</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20420,7 +20420,7 @@
         <v>45737.55802083333</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20477,7 +20477,7 @@
         <v>45345</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20534,7 +20534,7 @@
         <v>45953.41458333333</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20591,7 +20591,7 @@
         <v>45953.4543287037</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20648,7 +20648,7 @@
         <v>45749.60484953703</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20705,7 +20705,7 @@
         <v>45953.79050925926</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20762,7 +20762,7 @@
         <v>44919</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20819,7 +20819,7 @@
         <v>45645.60092592592</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20876,7 +20876,7 @@
         <v>45645.66908564815</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20933,7 +20933,7 @@
         <v>45964.4562037037</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20990,7 +20990,7 @@
         <v>44887</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21052,7 +21052,7 @@
         <v>45117.95247685185</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21114,7 +21114,7 @@
         <v>45601.41592592592</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21176,7 +21176,7 @@
         <v>44901.92403935185</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21233,7 +21233,7 @@
         <v>45148.47032407407</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21295,7 +21295,7 @@
         <v>45148</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21357,7 +21357,7 @@
         <v>44557</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21414,7 +21414,7 @@
         <v>45513</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21471,7 +21471,7 @@
         <v>45469</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21528,7 +21528,7 @@
         <v>45602.3874537037</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21585,7 +21585,7 @@
         <v>45602.38762731481</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21642,7 +21642,7 @@
         <v>45537</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21699,7 +21699,7 @@
         <v>44977</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21761,7 +21761,7 @@
         <v>45565.34449074074</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21818,7 +21818,7 @@
         <v>45973.38936342593</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21880,7 +21880,7 @@
         <v>45978.45061342593</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21937,7 +21937,7 @@
         <v>45975.37643518519</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21994,7 +21994,7 @@
         <v>45978.30922453704</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22051,7 +22051,7 @@
         <v>45980.3821875</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22108,7 +22108,7 @@
         <v>45979.65953703703</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22170,7 +22170,7 @@
         <v>45602.4377662037</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22227,7 +22227,7 @@
         <v>45602.44862268519</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22284,7 +22284,7 @@
         <v>45979.60740740741</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22346,7 +22346,7 @@
         <v>45981</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22403,7 +22403,7 @@
         <v>45982.64979166666</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22460,7 +22460,7 @@
         <v>45982.44800925926</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22517,7 +22517,7 @@
         <v>45582.47464120371</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22574,7 +22574,7 @@
         <v>45986.62428240741</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22631,7 +22631,7 @@
         <v>45986.61917824074</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22688,7 +22688,7 @@
         <v>45418</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22750,7 +22750,7 @@
         <v>45351</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22807,7 +22807,7 @@
         <v>45986.37128472222</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22864,7 +22864,7 @@
         <v>45642.70561342593</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22926,7 +22926,7 @@
         <v>45988.42684027777</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22988,7 +22988,7 @@
         <v>45988.70458333333</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23045,7 +23045,7 @@
         <v>45056</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23102,7 +23102,7 @@
         <v>45638.63533564815</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23159,7 +23159,7 @@
         <v>45989.3446412037</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23221,7 +23221,7 @@
         <v>45988</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23278,7 +23278,7 @@
         <v>45989.45841435185</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23340,7 +23340,7 @@
         <v>45189</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23397,7 +23397,7 @@
         <v>45450</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23459,7 +23459,7 @@
         <v>45471.9431712963</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23521,7 +23521,7 @@
         <v>45993.65642361111</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23578,7 +23578,7 @@
         <v>45630</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23640,7 +23640,7 @@
         <v>45616</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23697,7 +23697,7 @@
         <v>45602</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23759,7 +23759,7 @@
         <v>45190.50340277778</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23816,7 +23816,7 @@
         <v>46000</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23873,7 +23873,7 @@
         <v>45649.57627314814</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23930,7 +23930,7 @@
         <v>45345.34260416667</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23987,7 +23987,7 @@
         <v>46000.54172453703</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24044,7 +24044,7 @@
         <v>45609.61846064815</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24101,7 +24101,7 @@
         <v>45610.38056712963</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24163,7 +24163,7 @@
         <v>45587.83815972223</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24220,7 +24220,7 @@
         <v>46001.68611111111</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24282,7 +24282,7 @@
         <v>46001.43599537037</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24339,7 +24339,7 @@
         <v>45090.70563657407</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24396,7 +24396,7 @@
         <v>46002.60291666666</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24453,7 +24453,7 @@
         <v>46001.4212962963</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24510,7 +24510,7 @@
         <v>46001.45038194444</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24567,7 +24567,7 @@
         <v>45429.92396990741</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24624,7 +24624,7 @@
         <v>45198.40074074074</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24686,7 +24686,7 @@
         <v>46006.51091435185</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24748,7 +24748,7 @@
         <v>45190</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24810,7 +24810,7 @@
         <v>46008.49011574074</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24867,7 +24867,7 @@
         <v>46008.49018518518</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24924,7 +24924,7 @@
         <v>45190.60920138889</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24986,7 +24986,7 @@
         <v>46008.51109953703</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25043,7 +25043,7 @@
         <v>46007.50287037037</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25100,7 +25100,7 @@
         <v>45721.445625</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25157,7 +25157,7 @@
         <v>45260.34408564815</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25214,7 +25214,7 @@
         <v>45693.55229166667</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25271,7 +25271,7 @@
         <v>45511</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25328,7 +25328,7 @@
         <v>45659.39510416667</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25385,7 +25385,7 @@
         <v>45181.38291666667</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25447,7 +25447,7 @@
         <v>46007.88758101852</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25504,7 +25504,7 @@
         <v>45145.92299768519</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25561,7 +25561,7 @@
         <v>45145.92325231482</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25618,7 +25618,7 @@
         <v>45680.56597222222</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25675,7 +25675,7 @@
         <v>46010</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25732,7 +25732,7 @@
         <v>46010.39408564815</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25789,7 +25789,7 @@
         <v>45188.61318287037</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25851,7 +25851,7 @@
         <v>44701</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25908,7 +25908,7 @@
         <v>46010.45041666667</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25965,7 +25965,7 @@
         <v>46010</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -26022,7 +26022,7 @@
         <v>46010.39568287037</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26079,7 +26079,7 @@
         <v>46055.38575231482</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26136,7 +26136,7 @@
         <v>46056.41567129629</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26193,7 +26193,7 @@
         <v>46014.46296296296</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26250,7 +26250,7 @@
         <v>45224.75395833333</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26307,7 +26307,7 @@
         <v>46013.61215277778</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26369,7 +26369,7 @@
         <v>45307</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26426,7 +26426,7 @@
         <v>46056.42645833334</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26483,7 +26483,7 @@
         <v>46055</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26540,7 +26540,7 @@
         <v>46057.58056712963</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26597,7 +26597,7 @@
         <v>46057.58739583333</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26654,7 +26654,7 @@
         <v>46041</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26716,7 +26716,7 @@
         <v>46057.29667824074</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26773,7 +26773,7 @@
         <v>46057.2996412037</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26830,7 +26830,7 @@
         <v>44722</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26887,7 +26887,7 @@
         <v>45307.92592592593</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26944,7 +26944,7 @@
         <v>45756.47723379629</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -27001,7 +27001,7 @@
         <v>45247.47538194444</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -27058,7 +27058,7 @@
         <v>46056.48768518519</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -27115,7 +27115,7 @@
         <v>45183</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27172,7 +27172,7 @@
         <v>45362</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27229,7 +27229,7 @@
         <v>45755.60756944444</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27286,7 +27286,7 @@
         <v>45139</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27343,7 +27343,7 @@
         <v>45293</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27400,7 +27400,7 @@
         <v>45259</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27457,7 +27457,7 @@
         <v>45450.94471064815</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27519,7 +27519,7 @@
         <v>45451</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27581,7 +27581,7 @@
         <v>46023.84774305556</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27638,7 +27638,7 @@
         <v>46065.59229166667</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27695,7 +27695,7 @@
         <v>45436.94701388889</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27757,7 +27757,7 @@
         <v>45251</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27814,7 +27814,7 @@
         <v>46066.59456018519</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27871,7 +27871,7 @@
         <v>46044.42516203703</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27928,7 +27928,7 @@
         <v>46070.53387731482</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27985,7 +27985,7 @@
         <v>46028</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -28042,7 +28042,7 @@
         <v>45537</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -28099,7 +28099,7 @@
         <v>45348</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28156,7 +28156,7 @@
         <v>45348</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28213,7 +28213,7 @@
         <v>45345</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28270,7 +28270,7 @@
         <v>45537</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28327,7 +28327,7 @@
         <v>46030.58759259259</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28384,7 +28384,7 @@
         <v>45693.45158564814</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28441,7 +28441,7 @@
         <v>45469</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28503,7 +28503,7 @@
         <v>45141.32886574074</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28565,7 +28565,7 @@
         <v>45099</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28622,7 +28622,7 @@
         <v>45727.61769675926</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28679,7 +28679,7 @@
         <v>46034</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28736,7 +28736,7 @@
         <v>45451</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28798,7 +28798,7 @@
         <v>45536</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28855,7 +28855,7 @@
         <v>44424.94164351852</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28917,7 +28917,7 @@
         <v>45280.94303240741</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28979,7 +28979,7 @@
         <v>45175.63826388889</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -29041,7 +29041,7 @@
         <v>45009.08837962963</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -29103,7 +29103,7 @@
         <v>45958</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29160,7 +29160,7 @@
         <v>44792.35222222222</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29217,7 +29217,7 @@
         <v>45183</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29279,7 +29279,7 @@
         <v>44370.65484953704</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29336,7 +29336,7 @@
         <v>46078.67068287037</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29393,7 +29393,7 @@
         <v>44424</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29455,7 +29455,7 @@
         <v>44918</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29517,7 +29517,7 @@
         <v>45587.59827546297</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29574,7 +29574,7 @@
         <v>44608</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29631,7 +29631,7 @@
         <v>44608.66927083334</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29688,7 +29688,7 @@
         <v>44919</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29745,7 +29745,7 @@
         <v>44795</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29802,7 +29802,7 @@
         <v>44991</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29859,7 +29859,7 @@
         <v>45609.67881944445</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29916,7 +29916,7 @@
         <v>45189.44546296296</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29978,7 +29978,7 @@
         <v>45659</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -30035,7 +30035,7 @@
         <v>45224.88442129629</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -30092,7 +30092,7 @@
         <v>45406</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -30149,7 +30149,7 @@
         <v>45479</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30211,7 +30211,7 @@
         <v>44950.95469907407</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30268,7 +30268,7 @@
         <v>45253.8090162037</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30325,7 +30325,7 @@
         <v>45622.42745370371</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30387,7 +30387,7 @@
         <v>45102</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30449,7 +30449,7 @@
         <v>45600.47861111111</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30511,7 +30511,7 @@
         <v>44985</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30568,7 +30568,7 @@
         <v>45259</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30625,7 +30625,7 @@
         <v>44899.94689814815</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30687,7 +30687,7 @@
         <v>45627.71203703704</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30744,7 +30744,7 @@
         <v>45169.93868055556</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30806,7 +30806,7 @@
         <v>45246.96910879629</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30868,7 +30868,7 @@
         <v>45019</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30925,7 +30925,7 @@
         <v>45631.34457175926</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30987,7 +30987,7 @@
         <v>45357</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -31044,7 +31044,7 @@
         <v>44785</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -31106,7 +31106,7 @@
         <v>45736</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31163,7 +31163,7 @@
         <v>45705</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31220,7 +31220,7 @@
         <v>45168</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31277,7 +31277,7 @@
         <v>45351</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31334,7 +31334,7 @@
         <v>45467.35814814815</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31396,7 +31396,7 @@
         <v>44978.92381944445</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31453,7 +31453,7 @@
         <v>45602.38761574074</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31510,7 +31510,7 @@
         <v>45602.38763888889</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31567,7 +31567,7 @@
         <v>45727.60585648148</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31624,7 +31624,7 @@
         <v>45659.44478009259</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31681,7 +31681,7 @@
         <v>45590.48991898148</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31738,7 +31738,7 @@
         <v>45645.58835648148</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31795,7 +31795,7 @@
         <v>45615</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31852,7 +31852,7 @@
         <v>45028.94060185185</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31914,7 +31914,7 @@
         <v>45649</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31971,7 +31971,7 @@
         <v>45615.7033912037</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -32028,7 +32028,7 @@
         <v>45649</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -32085,7 +32085,7 @@
         <v>45649.3635300926</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -32142,7 +32142,7 @@
         <v>45609.64046296296</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32199,7 +32199,7 @@
         <v>45784.42898148148</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32256,7 +32256,7 @@
         <v>45785.46922453704</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32313,7 +32313,7 @@
         <v>45785.84648148148</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32375,7 +32375,7 @@
         <v>45786.34450231482</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32437,7 +32437,7 @@
         <v>45785.84664351852</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32499,7 +32499,7 @@
         <v>45785.46921296296</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32556,7 +32556,7 @@
         <v>45790</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32613,7 +32613,7 @@
         <v>45484.71327546296</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32670,7 +32670,7 @@
         <v>45567</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32727,7 +32727,7 @@
         <v>45800.65744212963</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32784,7 +32784,7 @@
         <v>45800.34435185185</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32846,7 +32846,7 @@
         <v>45251.33342592593</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>

--- a/Översikt BJURHOLM.xlsx
+++ b/Översikt BJURHOLM.xlsx
@@ -575,7 +575,7 @@
         <v>45831</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -713,7 +713,7 @@
         <v>44312</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -836,7 +836,7 @@
         <v>44336</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -961,7 +961,7 @@
         <v>45884.42804398148</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>45467</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1207,7 +1207,7 @@
         <v>45519</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1325,7 +1325,7 @@
         <v>45503</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1443,7 +1443,7 @@
         <v>45519</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1561,7 +1561,7 @@
         <v>45280</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1676,7 +1676,7 @@
         <v>44691</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1786,7 +1786,7 @@
         <v>45586</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1896,7 +1896,7 @@
         <v>44896</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -2009,7 +2009,7 @@
         <v>45827</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2122,7 +2122,7 @@
         <v>45742</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         <v>45607</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2326,7 +2326,7 @@
         <v>45057</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2426,7 +2426,7 @@
         <v>45456.62347222222</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2525,7 +2525,7 @@
         <v>44648</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2627,7 +2627,7 @@
         <v>45447</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2730,7 +2730,7 @@
         <v>44277</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2826,7 +2826,7 @@
         <v>45009</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2920,7 +2920,7 @@
         <v>45761.4652199074</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -3010,7 +3010,7 @@
         <v>45884.47008101852</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3109,7 +3109,7 @@
         <v>44694</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3208,7 +3208,7 @@
         <v>44881</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3297,7 +3297,7 @@
         <v>45043</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3386,7 +3386,7 @@
         <v>46057.38619212963</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         <v>44588</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3567,7 +3567,7 @@
         <v>45973.63479166666</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3655,7 +3655,7 @@
         <v>46000.4275462963</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3752,7 +3752,7 @@
         <v>45635</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3844,7 +3844,7 @@
         <v>45246</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3936,7 +3936,7 @@
         <v>45981.56534722223</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4027,7 +4027,7 @@
         <v>45645</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4113,7 +4113,7 @@
         <v>45471.94290509259</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4204,7 +4204,7 @@
         <v>45113</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4299,7 +4299,7 @@
         <v>46001.68449074074</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4390,7 +4390,7 @@
         <v>46010.46971064815</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4481,7 +4481,7 @@
         <v>44277</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4571,7 +4571,7 @@
         <v>45440</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4661,7 +4661,7 @@
         <v>44897.43052083333</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4751,7 +4751,7 @@
         <v>45747.68127314815</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4840,7 +4840,7 @@
         <v>45513</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4929,7 +4929,7 @@
         <v>45404</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -5014,7 +5014,7 @@
         <v>45915.55253472222</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5104,7 +5104,7 @@
         <v>45929.5741087963</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
         <v>45656</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5274,7 +5274,7 @@
         <v>44484</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5364,7 +5364,7 @@
         <v>45975.34778935185</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5454,7 +5454,7 @@
         <v>45981.30391203704</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5544,7 +5544,7 @@
         <v>46001.68668981481</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5634,7 +5634,7 @@
         <v>45659</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5719,7 +5719,7 @@
         <v>46013.56092592593</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5809,7 +5809,7 @@
         <v>45252</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5899,7 +5899,7 @@
         <v>46072.52524305556</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5984,7 +5984,7 @@
         <v>44665</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6074,7 +6074,7 @@
         <v>44279</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6131,7 +6131,7 @@
         <v>44679</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6188,7 +6188,7 @@
         <v>44524</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6245,7 +6245,7 @@
         <v>44300.93118055556</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6307,7 +6307,7 @@
         <v>44746</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6364,7 +6364,7 @@
         <v>44774</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6421,7 +6421,7 @@
         <v>44831.43211805556</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6478,7 +6478,7 @@
         <v>44818</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6535,7 +6535,7 @@
         <v>44370</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6592,7 +6592,7 @@
         <v>44375</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6649,7 +6649,7 @@
         <v>44844</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         <v>44865</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6763,7 +6763,7 @@
         <v>45260.96586805556</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6825,7 +6825,7 @@
         <v>44844.92738425926</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6882,7 +6882,7 @@
         <v>44397</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6939,7 +6939,7 @@
         <v>44831.42108796296</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6996,7 +6996,7 @@
         <v>44864.69234953704</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7053,7 +7053,7 @@
         <v>44461</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7110,7 +7110,7 @@
         <v>44461</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7167,7 +7167,7 @@
         <v>44462</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7224,7 +7224,7 @@
         <v>44504.48643518519</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7286,7 +7286,7 @@
         <v>44484.98724537037</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7348,7 +7348,7 @@
         <v>44608.67099537037</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7405,7 +7405,7 @@
         <v>44701.45046296297</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7467,7 +7467,7 @@
         <v>44397.55902777778</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7524,7 +7524,7 @@
         <v>44551</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7581,7 +7581,7 @@
         <v>44620</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7638,7 +7638,7 @@
         <v>44770</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7700,7 +7700,7 @@
         <v>44608</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7757,7 +7757,7 @@
         <v>44580</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7819,7 +7819,7 @@
         <v>44834.58712962963</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7881,7 +7881,7 @@
         <v>44490.66326388889</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7943,7 +7943,7 @@
         <v>44680</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8000,7 +8000,7 @@
         <v>44802.65265046297</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8062,7 +8062,7 @@
         <v>44608.6668287037</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8119,7 +8119,7 @@
         <v>44740.47321759259</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8181,7 +8181,7 @@
         <v>44743.94396990741</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8243,7 +8243,7 @@
         <v>44602</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8305,7 +8305,7 @@
         <v>44826</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8362,7 +8362,7 @@
         <v>44599</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8419,7 +8419,7 @@
         <v>44862.44689814815</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8476,7 +8476,7 @@
         <v>44620</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8533,7 +8533,7 @@
         <v>44620</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8590,7 +8590,7 @@
         <v>44524</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8647,7 +8647,7 @@
         <v>44524</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8704,7 +8704,7 @@
         <v>44774</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8761,7 +8761,7 @@
         <v>44490</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8818,7 +8818,7 @@
         <v>44484.98746527778</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8880,7 +8880,7 @@
         <v>45247.46681712963</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8937,7 +8937,7 @@
         <v>44776</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8999,7 +8999,7 @@
         <v>45678.61952546296</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9061,7 +9061,7 @@
         <v>45069.37450231481</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9123,7 +9123,7 @@
         <v>44806</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9180,7 +9180,7 @@
         <v>45342</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9237,7 +9237,7 @@
         <v>44414.52152777778</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9294,7 +9294,7 @@
         <v>45393</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9351,7 +9351,7 @@
         <v>45394</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9408,7 +9408,7 @@
         <v>45394</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9465,7 +9465,7 @@
         <v>45398</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9527,7 +9527,7 @@
         <v>45450.94480324074</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9589,7 +9589,7 @@
         <v>45407.51649305555</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9651,7 +9651,7 @@
         <v>45113</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9713,7 +9713,7 @@
         <v>44784.94172453704</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9775,7 +9775,7 @@
         <v>44441</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9832,7 +9832,7 @@
         <v>45190.45606481482</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9894,7 +9894,7 @@
         <v>45433.94342592593</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9956,7 +9956,7 @@
         <v>45394</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10013,7 +10013,7 @@
         <v>45512</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10070,7 +10070,7 @@
         <v>45481</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10132,7 +10132,7 @@
         <v>45467</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10194,7 +10194,7 @@
         <v>45446.6784837963</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10251,7 +10251,7 @@
         <v>44949</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10308,7 +10308,7 @@
         <v>44866</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10365,7 +10365,7 @@
         <v>45512</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10422,7 +10422,7 @@
         <v>45141</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10484,7 +10484,7 @@
         <v>45539</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10541,7 +10541,7 @@
         <v>45447</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         <v>45506</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10665,7 +10665,7 @@
         <v>45555</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10727,7 +10727,7 @@
         <v>44494</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10784,7 +10784,7 @@
         <v>45548.56578703703</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10841,7 +10841,7 @@
         <v>45476</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10903,7 +10903,7 @@
         <v>45614.34428240741</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10965,7 +10965,7 @@
         <v>45436</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11027,7 +11027,7 @@
         <v>45436.94708333333</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>45537</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11146,7 +11146,7 @@
         <v>44911.94085648148</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11208,7 +11208,7 @@
         <v>45429</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11265,7 +11265,7 @@
         <v>45646</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11322,7 +11322,7 @@
         <v>45883.63590277778</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11384,7 +11384,7 @@
         <v>45883.65666666667</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11446,7 +11446,7 @@
         <v>45348</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11503,7 +11503,7 @@
         <v>45888.59417824074</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11565,7 +11565,7 @@
         <v>44924</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11627,7 +11627,7 @@
         <v>45887.49842592593</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11684,7 +11684,7 @@
         <v>45810.8708912037</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11741,7 +11741,7 @@
         <v>45835.50796296296</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11798,7 +11798,7 @@
         <v>45568</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11855,7 +11855,7 @@
         <v>45812.47314814815</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11912,7 +11912,7 @@
         <v>45889.65439814814</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11974,7 +11974,7 @@
         <v>45813.52341435185</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12031,7 +12031,7 @@
         <v>45813.53979166667</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12088,7 +12088,7 @@
         <v>45104.65298611111</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12150,7 +12150,7 @@
         <v>45813.54122685185</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12207,7 +12207,7 @@
         <v>45889.36472222222</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12264,7 +12264,7 @@
         <v>45889.37619212963</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12321,7 +12321,7 @@
         <v>45889.36288194444</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12378,7 +12378,7 @@
         <v>45890.37449074074</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12440,7 +12440,7 @@
         <v>45889.37246527777</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12497,7 +12497,7 @@
         <v>45195</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12554,7 +12554,7 @@
         <v>45889.36733796296</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12611,7 +12611,7 @@
         <v>45891.63541666666</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12673,7 +12673,7 @@
         <v>45894.65684027778</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12730,7 +12730,7 @@
         <v>45894.66121527777</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12792,7 +12792,7 @@
         <v>45817.61836805556</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12854,7 +12854,7 @@
         <v>45817.63113425926</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12916,7 +12916,7 @@
         <v>45399</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12973,7 +12973,7 @@
         <v>45630.66277777778</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13035,7 +13035,7 @@
         <v>44914.97001157407</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13097,7 +13097,7 @@
         <v>45895.34515046296</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13154,7 +13154,7 @@
         <v>45895.34538194445</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13211,7 +13211,7 @@
         <v>45895.40678240741</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13273,7 +13273,7 @@
         <v>45898.60793981481</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13335,7 +13335,7 @@
         <v>45897</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13397,7 +13397,7 @@
         <v>45897</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13459,7 +13459,7 @@
         <v>45825.56524305556</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13516,7 +13516,7 @@
         <v>45897</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13578,7 +13578,7 @@
         <v>45897</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13640,7 +13640,7 @@
         <v>45897</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13702,7 +13702,7 @@
         <v>45744.57880787037</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13759,7 +13759,7 @@
         <v>45587.8405324074</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13836,7 +13836,7 @@
         <v>45587.84275462963</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13893,7 +13893,7 @@
         <v>45587.848125</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13950,7 +13950,7 @@
         <v>45897.34454861111</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14012,7 +14012,7 @@
         <v>45846.45019675926</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14069,7 +14069,7 @@
         <v>45568</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14126,7 +14126,7 @@
         <v>44756</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14183,7 +14183,7 @@
         <v>45723.36034722222</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14240,7 +14240,7 @@
         <v>45831.51869212963</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14302,7 +14302,7 @@
         <v>45831.52111111111</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14364,7 +14364,7 @@
         <v>45832.61597222222</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14421,7 +14421,7 @@
         <v>45236</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14478,7 +14478,7 @@
         <v>45908.49655092593</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14535,7 +14535,7 @@
         <v>45834.33939814815</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14597,7 +14597,7 @@
         <v>45737.54446759259</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14654,7 +14654,7 @@
         <v>45187</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14716,7 +14716,7 @@
         <v>45838.59995370371</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14773,7 +14773,7 @@
         <v>44673</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14830,7 +14830,7 @@
         <v>45756.4102199074</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14887,7 +14887,7 @@
         <v>45824.45652777778</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14944,7 +14944,7 @@
         <v>45835.8281712963</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15006,7 +15006,7 @@
         <v>45712.39594907407</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15068,7 +15068,7 @@
         <v>45835.87006944444</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15130,7 +15130,7 @@
         <v>45351</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15187,7 +15187,7 @@
         <v>44998</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15244,7 +15244,7 @@
         <v>45609.64043981482</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15301,7 +15301,7 @@
         <v>45623</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15358,7 +15358,7 @@
         <v>45623</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15415,7 +15415,7 @@
         <v>45614</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15472,7 +15472,7 @@
         <v>45846.4693287037</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15529,7 +15529,7 @@
         <v>45846.45319444445</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15586,7 +15586,7 @@
         <v>45845</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15643,7 +15643,7 @@
         <v>45057.9408912037</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15705,7 +15705,7 @@
         <v>45076</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15762,7 +15762,7 @@
         <v>45611</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15819,7 +15819,7 @@
         <v>45912.39425925926</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15881,7 +15881,7 @@
         <v>45582</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15938,7 +15938,7 @@
         <v>45679.39748842592</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15995,7 +15995,7 @@
         <v>45915.574375</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16057,7 +16057,7 @@
         <v>45915.58934027778</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16119,7 +16119,7 @@
         <v>45547</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16181,7 +16181,7 @@
         <v>45232</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16238,7 +16238,7 @@
         <v>45916.65663194445</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16300,7 +16300,7 @@
         <v>45600.55559027778</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16362,7 +16362,7 @@
         <v>45128.62215277777</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16424,7 +16424,7 @@
         <v>45800</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16486,7 +16486,7 @@
         <v>45866.55498842592</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16543,7 +16543,7 @@
         <v>45919.48994212963</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16605,7 +16605,7 @@
         <v>45919.49429398148</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16662,7 +16662,7 @@
         <v>45920.82388888889</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16719,7 +16719,7 @@
         <v>45630</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16781,7 +16781,7 @@
         <v>45867.61530092593</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16843,7 +16843,7 @@
         <v>45924.67805555555</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16905,7 +16905,7 @@
         <v>45565.58391203704</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16962,7 +16962,7 @@
         <v>45926.59788194444</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17024,7 +17024,7 @@
         <v>45874.48631944445</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17081,7 +17081,7 @@
         <v>45929.72506944444</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17138,7 +17138,7 @@
         <v>45929.36494212963</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17195,7 +17195,7 @@
         <v>45929.36496527777</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17252,7 +17252,7 @@
         <v>45929.71940972222</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17309,7 +17309,7 @@
         <v>45929.47361111111</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17371,7 +17371,7 @@
         <v>45758.63064814815</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17428,7 +17428,7 @@
         <v>45873.71912037037</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17490,7 +17490,7 @@
         <v>45726.61538194444</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17552,7 +17552,7 @@
         <v>45929.34304398148</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17614,7 +17614,7 @@
         <v>45072.47021990741</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17671,7 +17671,7 @@
         <v>45198.47061342592</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17733,7 +17733,7 @@
         <v>45931.37207175926</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17790,7 +17790,7 @@
         <v>45874.67782407408</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17852,7 +17852,7 @@
         <v>45874.69827546296</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17914,7 +17914,7 @@
         <v>45132</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17976,7 +17976,7 @@
         <v>45875.67760416667</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18038,7 +18038,7 @@
         <v>45875.34476851852</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18100,7 +18100,7 @@
         <v>45880</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18157,7 +18157,7 @@
         <v>45880</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18214,7 +18214,7 @@
         <v>45880</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18271,7 +18271,7 @@
         <v>45880</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18328,7 +18328,7 @@
         <v>45880.67780092593</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18390,7 +18390,7 @@
         <v>45880</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18447,7 +18447,7 @@
         <v>45882.58627314815</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18504,7 +18504,7 @@
         <v>45881.40806712963</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18561,7 +18561,7 @@
         <v>45881.41208333334</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18618,7 +18618,7 @@
         <v>45882.28542824074</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18675,7 +18675,7 @@
         <v>45749.44096064815</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18732,7 +18732,7 @@
         <v>45882.63927083334</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18789,7 +18789,7 @@
         <v>44916.9260300926</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18846,7 +18846,7 @@
         <v>45881.51483796296</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18903,7 +18903,7 @@
         <v>44827</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18960,7 +18960,7 @@
         <v>44788.6674537037</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19017,7 +19017,7 @@
         <v>45938.48</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19079,7 +19079,7 @@
         <v>45750.46479166667</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19141,7 +19141,7 @@
         <v>45938.63704861111</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19198,7 +19198,7 @@
         <v>45730.39814814815</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19255,7 +19255,7 @@
         <v>45568.44950231481</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19312,7 +19312,7 @@
         <v>45531.69734953704</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19369,7 +19369,7 @@
         <v>45257</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19426,7 +19426,7 @@
         <v>45537</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19483,7 +19483,7 @@
         <v>45882.55125</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19540,7 +19540,7 @@
         <v>45141.47096064815</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19602,7 +19602,7 @@
         <v>44966.67196759259</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19664,7 +19664,7 @@
         <v>45943.40912037037</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19721,7 +19721,7 @@
         <v>44536</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19778,7 +19778,7 @@
         <v>45943.38288194445</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19835,7 +19835,7 @@
         <v>45280.94380787037</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19897,7 +19897,7 @@
         <v>45943.40491898148</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19954,7 +19954,7 @@
         <v>45945.40693287037</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20011,7 +20011,7 @@
         <v>45946.490625</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20068,7 +20068,7 @@
         <v>45946.51113425926</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20125,7 +20125,7 @@
         <v>45946.51122685185</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20182,7 +20182,7 @@
         <v>45946.61516203704</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20239,7 +20239,7 @@
         <v>44475.63670138889</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20301,7 +20301,7 @@
         <v>44911</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20363,7 +20363,7 @@
         <v>45614</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20420,7 +20420,7 @@
         <v>45737.55802083333</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20477,7 +20477,7 @@
         <v>45345</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20534,7 +20534,7 @@
         <v>45953.41458333333</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20591,7 +20591,7 @@
         <v>45953.4543287037</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20648,7 +20648,7 @@
         <v>45749.60484953703</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20705,7 +20705,7 @@
         <v>45953.79050925926</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20762,7 +20762,7 @@
         <v>44919</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20819,7 +20819,7 @@
         <v>45645.60092592592</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20876,7 +20876,7 @@
         <v>45645.66908564815</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20933,7 +20933,7 @@
         <v>45964.4562037037</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20990,7 +20990,7 @@
         <v>44887</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21052,7 +21052,7 @@
         <v>45117.95247685185</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21114,7 +21114,7 @@
         <v>45601.41592592592</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21176,7 +21176,7 @@
         <v>44901.92403935185</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21233,7 +21233,7 @@
         <v>45148.47032407407</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21295,7 +21295,7 @@
         <v>45148</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21357,7 +21357,7 @@
         <v>44557</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21414,7 +21414,7 @@
         <v>45513</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21471,7 +21471,7 @@
         <v>45469</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21528,7 +21528,7 @@
         <v>45602.3874537037</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21585,7 +21585,7 @@
         <v>45602.38762731481</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21642,7 +21642,7 @@
         <v>45537</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21699,7 +21699,7 @@
         <v>44977</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21761,7 +21761,7 @@
         <v>45565.34449074074</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21818,7 +21818,7 @@
         <v>45973.38936342593</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21880,7 +21880,7 @@
         <v>45978.45061342593</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21937,7 +21937,7 @@
         <v>45975.37643518519</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21994,7 +21994,7 @@
         <v>45978.30922453704</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22051,7 +22051,7 @@
         <v>45980.3821875</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22108,7 +22108,7 @@
         <v>45979.65953703703</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22170,7 +22170,7 @@
         <v>45602.4377662037</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22227,7 +22227,7 @@
         <v>45602.44862268519</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22284,7 +22284,7 @@
         <v>45979.60740740741</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22346,7 +22346,7 @@
         <v>45981</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22403,7 +22403,7 @@
         <v>45982.64979166666</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22460,7 +22460,7 @@
         <v>45982.44800925926</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22517,7 +22517,7 @@
         <v>45582.47464120371</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22574,7 +22574,7 @@
         <v>45986.62428240741</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22631,7 +22631,7 @@
         <v>45986.61917824074</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22688,7 +22688,7 @@
         <v>45418</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22750,7 +22750,7 @@
         <v>45351</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22807,7 +22807,7 @@
         <v>45986.37128472222</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22864,7 +22864,7 @@
         <v>45642.70561342593</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22926,7 +22926,7 @@
         <v>45988.42684027777</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22988,7 +22988,7 @@
         <v>45988.70458333333</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23045,7 +23045,7 @@
         <v>45056</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23102,7 +23102,7 @@
         <v>45638.63533564815</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23159,7 +23159,7 @@
         <v>45989.3446412037</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23221,7 +23221,7 @@
         <v>45988</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23278,7 +23278,7 @@
         <v>45989.45841435185</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23340,7 +23340,7 @@
         <v>45189</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23397,7 +23397,7 @@
         <v>45450</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23459,7 +23459,7 @@
         <v>45471.9431712963</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23521,7 +23521,7 @@
         <v>45993.65642361111</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23578,7 +23578,7 @@
         <v>45630</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23640,7 +23640,7 @@
         <v>45616</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23697,7 +23697,7 @@
         <v>45602</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23759,7 +23759,7 @@
         <v>45190.50340277778</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23816,7 +23816,7 @@
         <v>46000</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23873,7 +23873,7 @@
         <v>45649.57627314814</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23930,7 +23930,7 @@
         <v>45345.34260416667</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23987,7 +23987,7 @@
         <v>46000.54172453703</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24044,7 +24044,7 @@
         <v>45609.61846064815</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24101,7 +24101,7 @@
         <v>45610.38056712963</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24163,7 +24163,7 @@
         <v>45587.83815972223</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24220,7 +24220,7 @@
         <v>46001.68611111111</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24282,7 +24282,7 @@
         <v>46001.43599537037</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24339,7 +24339,7 @@
         <v>45090.70563657407</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24396,7 +24396,7 @@
         <v>46002.60291666666</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24453,7 +24453,7 @@
         <v>46001.4212962963</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24510,7 +24510,7 @@
         <v>46001.45038194444</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24567,7 +24567,7 @@
         <v>45429.92396990741</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24624,7 +24624,7 @@
         <v>45198.40074074074</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24686,7 +24686,7 @@
         <v>46006.51091435185</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24748,7 +24748,7 @@
         <v>45190</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24810,7 +24810,7 @@
         <v>46008.49011574074</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24867,7 +24867,7 @@
         <v>46008.49018518518</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24924,7 +24924,7 @@
         <v>45190.60920138889</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24986,7 +24986,7 @@
         <v>46008.51109953703</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25043,7 +25043,7 @@
         <v>46007.50287037037</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25100,7 +25100,7 @@
         <v>45721.445625</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25157,7 +25157,7 @@
         <v>45260.34408564815</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25214,7 +25214,7 @@
         <v>45693.55229166667</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25271,7 +25271,7 @@
         <v>45511</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25328,7 +25328,7 @@
         <v>45659.39510416667</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25385,7 +25385,7 @@
         <v>45181.38291666667</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25447,7 +25447,7 @@
         <v>46007.88758101852</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25504,7 +25504,7 @@
         <v>45145.92299768519</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25561,7 +25561,7 @@
         <v>45145.92325231482</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25618,7 +25618,7 @@
         <v>45680.56597222222</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25675,7 +25675,7 @@
         <v>46010</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25732,7 +25732,7 @@
         <v>46010.39408564815</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25789,7 +25789,7 @@
         <v>45188.61318287037</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25851,7 +25851,7 @@
         <v>44701</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25908,7 +25908,7 @@
         <v>46010.45041666667</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25965,7 +25965,7 @@
         <v>46010</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -26022,7 +26022,7 @@
         <v>46010.39568287037</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26079,7 +26079,7 @@
         <v>46055.38575231482</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26136,7 +26136,7 @@
         <v>46056.41567129629</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26193,7 +26193,7 @@
         <v>46014.46296296296</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26250,7 +26250,7 @@
         <v>45224.75395833333</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26307,7 +26307,7 @@
         <v>46013.61215277778</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26369,7 +26369,7 @@
         <v>45307</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26426,7 +26426,7 @@
         <v>46056.42645833334</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26483,7 +26483,7 @@
         <v>46055</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26540,7 +26540,7 @@
         <v>46057.58056712963</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26597,7 +26597,7 @@
         <v>46057.58739583333</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26654,7 +26654,7 @@
         <v>46041</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26716,7 +26716,7 @@
         <v>46057.29667824074</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26773,7 +26773,7 @@
         <v>46057.2996412037</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26830,7 +26830,7 @@
         <v>44722</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26887,7 +26887,7 @@
         <v>45307.92592592593</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26944,7 +26944,7 @@
         <v>45756.47723379629</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -27001,7 +27001,7 @@
         <v>45247.47538194444</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -27058,7 +27058,7 @@
         <v>46056.48768518519</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -27115,7 +27115,7 @@
         <v>45183</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27172,7 +27172,7 @@
         <v>45362</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27229,7 +27229,7 @@
         <v>45755.60756944444</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27286,7 +27286,7 @@
         <v>45139</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27343,7 +27343,7 @@
         <v>45293</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27400,7 +27400,7 @@
         <v>45259</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27457,7 +27457,7 @@
         <v>45450.94471064815</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27519,7 +27519,7 @@
         <v>45451</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27581,7 +27581,7 @@
         <v>46023.84774305556</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27638,7 +27638,7 @@
         <v>46065.59229166667</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27695,7 +27695,7 @@
         <v>45436.94701388889</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27757,7 +27757,7 @@
         <v>45251</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27814,7 +27814,7 @@
         <v>46066.59456018519</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27871,7 +27871,7 @@
         <v>46044.42516203703</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27928,7 +27928,7 @@
         <v>46070.53387731482</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27985,7 +27985,7 @@
         <v>46028</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -28042,7 +28042,7 @@
         <v>45537</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -28099,7 +28099,7 @@
         <v>45348</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28156,7 +28156,7 @@
         <v>45348</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28213,7 +28213,7 @@
         <v>45345</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28270,7 +28270,7 @@
         <v>45537</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28327,7 +28327,7 @@
         <v>46030.58759259259</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28384,7 +28384,7 @@
         <v>45693.45158564814</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28441,7 +28441,7 @@
         <v>45469</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28503,7 +28503,7 @@
         <v>45141.32886574074</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28565,7 +28565,7 @@
         <v>45099</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28622,7 +28622,7 @@
         <v>45727.61769675926</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28679,7 +28679,7 @@
         <v>46034</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28736,7 +28736,7 @@
         <v>45451</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28798,7 +28798,7 @@
         <v>45536</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28855,7 +28855,7 @@
         <v>44424.94164351852</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28917,7 +28917,7 @@
         <v>45280.94303240741</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28979,7 +28979,7 @@
         <v>45175.63826388889</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -29041,7 +29041,7 @@
         <v>45009.08837962963</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -29103,7 +29103,7 @@
         <v>45958</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29160,7 +29160,7 @@
         <v>44792.35222222222</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29217,7 +29217,7 @@
         <v>45183</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29279,7 +29279,7 @@
         <v>44370.65484953704</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29336,7 +29336,7 @@
         <v>46078.67068287037</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29393,7 +29393,7 @@
         <v>44424</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29455,7 +29455,7 @@
         <v>44918</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29517,7 +29517,7 @@
         <v>45587.59827546297</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29574,7 +29574,7 @@
         <v>44608</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29631,7 +29631,7 @@
         <v>44608.66927083334</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29688,7 +29688,7 @@
         <v>44919</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29745,7 +29745,7 @@
         <v>44795</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29802,7 +29802,7 @@
         <v>44991</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29859,7 +29859,7 @@
         <v>45609.67881944445</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29916,7 +29916,7 @@
         <v>45189.44546296296</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29978,7 +29978,7 @@
         <v>45659</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -30035,7 +30035,7 @@
         <v>45224.88442129629</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -30092,7 +30092,7 @@
         <v>45406</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -30149,7 +30149,7 @@
         <v>45479</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30211,7 +30211,7 @@
         <v>44950.95469907407</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30268,7 +30268,7 @@
         <v>45253.8090162037</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30325,7 +30325,7 @@
         <v>45622.42745370371</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30387,7 +30387,7 @@
         <v>45102</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30449,7 +30449,7 @@
         <v>45600.47861111111</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30511,7 +30511,7 @@
         <v>44985</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30568,7 +30568,7 @@
         <v>45259</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30625,7 +30625,7 @@
         <v>44899.94689814815</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30687,7 +30687,7 @@
         <v>45627.71203703704</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30744,7 +30744,7 @@
         <v>45169.93868055556</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30806,7 +30806,7 @@
         <v>45246.96910879629</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30868,7 +30868,7 @@
         <v>45019</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30925,7 +30925,7 @@
         <v>45631.34457175926</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30987,7 +30987,7 @@
         <v>45357</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -31044,7 +31044,7 @@
         <v>44785</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -31106,7 +31106,7 @@
         <v>45736</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31163,7 +31163,7 @@
         <v>45705</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31220,7 +31220,7 @@
         <v>45168</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31277,7 +31277,7 @@
         <v>45351</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31334,7 +31334,7 @@
         <v>45467.35814814815</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31396,7 +31396,7 @@
         <v>44978.92381944445</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31453,7 +31453,7 @@
         <v>45602.38761574074</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31510,7 +31510,7 @@
         <v>45602.38763888889</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31567,7 +31567,7 @@
         <v>45727.60585648148</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31624,7 +31624,7 @@
         <v>45659.44478009259</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31681,7 +31681,7 @@
         <v>45590.48991898148</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31738,7 +31738,7 @@
         <v>45645.58835648148</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31795,7 +31795,7 @@
         <v>45615</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31852,7 +31852,7 @@
         <v>45028.94060185185</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31914,7 +31914,7 @@
         <v>45649</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31971,7 +31971,7 @@
         <v>45615.7033912037</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -32028,7 +32028,7 @@
         <v>45649</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -32085,7 +32085,7 @@
         <v>45649.3635300926</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -32142,7 +32142,7 @@
         <v>45609.64046296296</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32199,7 +32199,7 @@
         <v>45784.42898148148</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32256,7 +32256,7 @@
         <v>45785.46922453704</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32313,7 +32313,7 @@
         <v>45785.84648148148</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32375,7 +32375,7 @@
         <v>45786.34450231482</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32437,7 +32437,7 @@
         <v>45785.84664351852</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32499,7 +32499,7 @@
         <v>45785.46921296296</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32556,7 +32556,7 @@
         <v>45790</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32613,7 +32613,7 @@
         <v>45484.71327546296</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32670,7 +32670,7 @@
         <v>45567</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32727,7 +32727,7 @@
         <v>45800.65744212963</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32784,7 +32784,7 @@
         <v>45800.34435185185</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32846,7 +32846,7 @@
         <v>45251.33342592593</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
